--- a/Tarea2/Resultados/resultados_P2b.xlsx
+++ b/Tarea2/Resultados/resultados_P2b.xlsx
@@ -1417,7 +1417,7 @@
         <v>707.0</v>
       </c>
       <c r="O8">
-        <v>495.4950883277746</v>
+        <v>495.4950883275481</v>
       </c>
       <c r="P8">
         <v>707.0</v>
@@ -1467,7 +1467,7 @@
         <v>119.0</v>
       </c>
       <c r="F9">
-        <v>86.14833454275254</v>
+        <v>86.14833454249829</v>
       </c>
       <c r="G9">
         <v>119.0</v>
@@ -1541,7 +1541,7 @@
         <v>304.0</v>
       </c>
       <c r="E10">
-        <v>268.35019714759187</v>
+        <v>268.3501971474385</v>
       </c>
       <c r="F10">
         <v>130.72000000000003</v>
@@ -1568,7 +1568,7 @@
         <v>304.0</v>
       </c>
       <c r="N10">
-        <v>219.44195281499535</v>
+        <v>219.44195281478</v>
       </c>
       <c r="O10">
         <v>130.72000000000003</v>
@@ -1618,10 +1618,10 @@
         <v>100.0</v>
       </c>
       <c r="E11">
-        <v>38.33333333333333</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="F11">
-        <v>38.33333333333333</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="G11">
         <v>100.0</v>
@@ -1645,7 +1645,7 @@
         <v>100.0</v>
       </c>
       <c r="N11">
-        <v>38.33333333333333</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="O11">
         <v>20.0</v>
@@ -1692,7 +1692,7 @@
         <v>148.0</v>
       </c>
       <c r="D12">
-        <v>115.53866666666667</v>
+        <v>115.53866666666478</v>
       </c>
       <c r="E12">
         <v>29.6</v>
@@ -1701,7 +1701,7 @@
         <v>29.6</v>
       </c>
       <c r="G12">
-        <v>115.53866666666667</v>
+        <v>115.5386666666665</v>
       </c>
       <c r="H12">
         <v>148.0</v>
@@ -1713,10 +1713,10 @@
         <v>148.0</v>
       </c>
       <c r="K12">
-        <v>144.08508393383937</v>
+        <v>144.0850839337109</v>
       </c>
       <c r="L12">
-        <v>147.2149598869406</v>
+        <v>147.21495988693692</v>
       </c>
       <c r="M12">
         <v>115.53866666666667</v>
@@ -1763,13 +1763,13 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>457.9657874695536</v>
+        <v>457.96578746950996</v>
       </c>
       <c r="C13">
-        <v>440.80495132331146</v>
+        <v>440.8049513232641</v>
       </c>
       <c r="D13">
-        <v>369.68062010121923</v>
+        <v>369.68062010120076</v>
       </c>
       <c r="E13">
         <v>110.0</v>
@@ -1778,25 +1778,25 @@
         <v>110.0</v>
       </c>
       <c r="G13">
-        <v>351.45643723213436</v>
+        <v>351.45643723190165</v>
       </c>
       <c r="H13">
-        <v>435.9036812984506</v>
+        <v>435.9036812983975</v>
       </c>
       <c r="I13">
-        <v>397.98842433825286</v>
+        <v>397.9884243380372</v>
       </c>
       <c r="J13">
-        <v>306.9840598824735</v>
+        <v>306.9840598822719</v>
       </c>
       <c r="K13">
-        <v>447.62791843811664</v>
+        <v>447.6279184380602</v>
       </c>
       <c r="L13">
-        <v>421.7152488424656</v>
+        <v>421.7152488422615</v>
       </c>
       <c r="M13">
-        <v>141.2152488424656</v>
+        <v>141.21524884226147</v>
       </c>
       <c r="N13">
         <v>110.0</v>
@@ -1805,19 +1805,19 @@
         <v>110.0</v>
       </c>
       <c r="P13">
-        <v>333.1638345298483</v>
+        <v>333.1638345296609</v>
       </c>
       <c r="Q13">
-        <v>400.3832821113374</v>
+        <v>400.38328211128595</v>
       </c>
       <c r="R13">
-        <v>379.55244304615957</v>
+        <v>379.55244304611085</v>
       </c>
       <c r="S13">
-        <v>490.82078414249537</v>
+        <v>491.4630212264379</v>
       </c>
       <c r="T13">
-        <v>519.9812813603843</v>
+        <v>527.5789538950215</v>
       </c>
       <c r="U13">
         <v>550.0</v>
@@ -1826,13 +1826,13 @@
         <v>550.0</v>
       </c>
       <c r="W13">
-        <v>542.3431849357952</v>
+        <v>542.0798160822042</v>
       </c>
       <c r="X13">
         <v>550.0</v>
       </c>
       <c r="Y13">
-        <v>548.7702745202499</v>
+        <v>548.7699924746579</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1885,7 +1885,7 @@
         <v>20.0</v>
       </c>
       <c r="Q14">
-        <v>58.98479472864362</v>
+        <v>58.9847947285119</v>
       </c>
       <c r="R14">
         <v>100.0</v>
@@ -1965,7 +1965,7 @@
         <v>20.0</v>
       </c>
       <c r="R15">
-        <v>49.41041992316272</v>
+        <v>49.41041992305566</v>
       </c>
       <c r="S15">
         <v>100.0</v>
@@ -2122,7 +2122,7 @@
         <v>0.0</v>
       </c>
       <c r="S17">
-        <v>230.53333333333336</v>
+        <v>230.53333333333333</v>
       </c>
       <c r="T17">
         <v>260.0</v>
@@ -2148,13 +2148,13 @@
         <v>41</v>
       </c>
       <c r="B18">
-        <v>660.2640000000001</v>
+        <v>660.2640000000066</v>
       </c>
       <c r="C18">
-        <v>514.523972426014</v>
+        <v>514.5239724259062</v>
       </c>
       <c r="D18">
-        <v>184.39197242601392</v>
+        <v>184.39197242590612</v>
       </c>
       <c r="E18">
         <v>161.04000000000002</v>
@@ -2166,22 +2166,22 @@
         <v>161.04000000000002</v>
       </c>
       <c r="H18">
-        <v>300.94370591955993</v>
+        <v>300.9437059193746</v>
       </c>
       <c r="I18">
-        <v>294.88357484258773</v>
+        <v>294.88357484225594</v>
       </c>
       <c r="J18">
-        <v>286.7034772486614</v>
+        <v>286.703477248662</v>
       </c>
       <c r="K18">
-        <v>310.2925538245463</v>
+        <v>310.29255382453846</v>
       </c>
       <c r="L18">
-        <v>298.76275173092813</v>
+        <v>298.76275173093177</v>
       </c>
       <c r="M18">
-        <v>208.62654784505227</v>
+        <v>208.62654784502064</v>
       </c>
       <c r="N18">
         <v>161.04000000000002</v>
@@ -2190,16 +2190,16 @@
         <v>161.04000000000002</v>
       </c>
       <c r="P18">
-        <v>277.11567376257074</v>
+        <v>277.11567376257415</v>
       </c>
       <c r="Q18">
-        <v>318.085913179956</v>
+        <v>318.0859131799489</v>
       </c>
       <c r="R18">
-        <v>340.86868819093536</v>
+        <v>340.86868819092905</v>
       </c>
       <c r="S18">
-        <v>522.0559043001764</v>
+        <v>524.2464776656436</v>
       </c>
       <c r="T18">
         <v>805.2</v>
@@ -2211,13 +2211,13 @@
         <v>805.2</v>
       </c>
       <c r="W18">
-        <v>654.751357834332</v>
+        <v>661.6813983415044</v>
       </c>
       <c r="X18">
-        <v>745.3002991355813</v>
+        <v>746.9291135472206</v>
       </c>
       <c r="Y18">
-        <v>637.5449267663054</v>
+        <v>637.6500989360874</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2276,16 +2276,16 @@
         <v>0.0</v>
       </c>
       <c r="S19">
-        <v>23.731818786128642</v>
+        <v>20.0</v>
       </c>
       <c r="T19">
-        <v>69.39848545279531</v>
+        <v>60.923614446150644</v>
       </c>
       <c r="U19">
         <v>100.0</v>
       </c>
       <c r="V19">
-        <v>100.0</v>
+        <v>99.99999989108888</v>
       </c>
       <c r="W19">
         <v>54.333333333333336</v>
@@ -2323,10 +2323,10 @@
         <v>0.0</v>
       </c>
       <c r="I20">
-        <v>30.457944137470673</v>
+        <v>30.457944137438187</v>
       </c>
       <c r="J20">
-        <v>66.69463161451968</v>
+        <v>66.69463161448697</v>
       </c>
       <c r="K20">
         <v>100.0</v>
@@ -2350,7 +2350,7 @@
         <v>100.0</v>
       </c>
       <c r="R20">
-        <v>69.21764218057773</v>
+        <v>69.21764218057645</v>
       </c>
       <c r="S20">
         <v>100.0</v>
@@ -2424,13 +2424,13 @@
         <v>0.0</v>
       </c>
       <c r="Q21">
-        <v>72.22787120574665</v>
+        <v>72.2278712056643</v>
       </c>
       <c r="R21">
-        <v>30.561204539079988</v>
+        <v>30.561204539036023</v>
       </c>
       <c r="S21">
-        <v>70.59134196847072</v>
+        <v>71.47875021826104</v>
       </c>
       <c r="T21">
         <v>100.0</v>
@@ -2456,10 +2456,10 @@
         <v>45</v>
       </c>
       <c r="B22">
-        <v>48.76606875939267</v>
+        <v>48.7660687592585</v>
       </c>
       <c r="C22">
-        <v>39.66666666666667</v>
+        <v>39.666666666666664</v>
       </c>
       <c r="D22">
         <v>0.0</v>
@@ -2510,7 +2510,7 @@
         <v>0.0</v>
       </c>
       <c r="T22">
-        <v>60.33333333333333</v>
+        <v>60.333333333333336</v>
       </c>
       <c r="U22">
         <v>100.0</v>
@@ -2519,10 +2519,10 @@
         <v>100.0</v>
       </c>
       <c r="W22">
-        <v>60.33333333333333</v>
+        <v>60.333333333333336</v>
       </c>
       <c r="X22">
-        <v>20.666666666666657</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="Y22">
         <v>0.0</v>
@@ -2584,7 +2584,7 @@
         <v>0.0</v>
       </c>
       <c r="S23">
-        <v>62.33333333333333</v>
+        <v>62.333333333333336</v>
       </c>
       <c r="T23">
         <v>100.0</v>
@@ -2596,13 +2596,13 @@
         <v>100.0</v>
       </c>
       <c r="W23">
-        <v>62.33333333333333</v>
+        <v>62.333333333333336</v>
       </c>
       <c r="X23">
-        <v>82.05262861067419</v>
+        <v>87.67656991592837</v>
       </c>
       <c r="Y23">
-        <v>58.67980419151304</v>
+        <v>63.69326816931209</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2637,28 +2637,28 @@
         <v>0.0</v>
       </c>
       <c r="K24">
-        <v>28.103979158059555</v>
+        <v>28.103979158023563</v>
       </c>
       <c r="L24">
-        <v>48.356952233984174</v>
+        <v>48.356952233957706</v>
       </c>
       <c r="M24">
-        <v>27.200000000000003</v>
+        <v>27.2</v>
       </c>
       <c r="N24">
-        <v>27.200000000000003</v>
+        <v>27.2</v>
       </c>
       <c r="O24">
-        <v>27.200000000000003</v>
+        <v>27.2</v>
       </c>
       <c r="P24">
-        <v>31.988632250396698</v>
+        <v>31.988632250373318</v>
       </c>
       <c r="Q24">
-        <v>27.200000000000003</v>
+        <v>27.2</v>
       </c>
       <c r="R24">
-        <v>27.200000000000003</v>
+        <v>27.2</v>
       </c>
       <c r="S24">
         <v>42.25066666666666</v>
@@ -2679,7 +2679,7 @@
         <v>42.25066666666666</v>
       </c>
       <c r="Y24">
-        <v>27.200000000000003</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2750,10 +2750,10 @@
         <v>100.0</v>
       </c>
       <c r="W25">
-        <v>66.33333333333334</v>
+        <v>66.33333333333333</v>
       </c>
       <c r="X25">
-        <v>32.66666666666668</v>
+        <v>32.666666666666664</v>
       </c>
       <c r="Y25">
         <v>20.0</v>
@@ -2818,7 +2818,7 @@
         <v>0.0</v>
       </c>
       <c r="T26">
-        <v>63.33333333333333</v>
+        <v>63.333333333333336</v>
       </c>
       <c r="U26">
         <v>95.0</v>
@@ -2827,10 +2827,10 @@
         <v>95.0</v>
       </c>
       <c r="W26">
-        <v>63.33333333333333</v>
+        <v>63.333333333333336</v>
       </c>
       <c r="X26">
-        <v>31.666666666666664</v>
+        <v>31.666666666666668</v>
       </c>
       <c r="Y26">
         <v>0.0</v>
@@ -2892,25 +2892,25 @@
         <v>0.0</v>
       </c>
       <c r="S27">
-        <v>131.26703728762305</v>
+        <v>131.27863737432747</v>
       </c>
       <c r="T27">
-        <v>212.22703728762306</v>
+        <v>212.23863737432742</v>
       </c>
       <c r="U27">
-        <v>293.18703728762307</v>
+        <v>293.1986373743267</v>
       </c>
       <c r="V27">
-        <v>352.0</v>
+        <v>346.88164589791097</v>
       </c>
       <c r="W27">
-        <v>271.03999999999996</v>
+        <v>265.921645897911</v>
       </c>
       <c r="X27">
-        <v>190.07999999999996</v>
+        <v>184.961645897911</v>
       </c>
       <c r="Y27">
-        <v>109.11999999999995</v>
+        <v>104.00164589791103</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2972,19 +2972,19 @@
         <v>0.0</v>
       </c>
       <c r="T28">
-        <v>22.134401614909386</v>
+        <v>20.0</v>
       </c>
       <c r="U28">
-        <v>49.80106828157606</v>
+        <v>47.666666666666664</v>
       </c>
       <c r="V28">
-        <v>77.46773494824274</v>
+        <v>75.33333333333333</v>
       </c>
       <c r="W28">
-        <v>49.80106828157606</v>
+        <v>47.666666666666664</v>
       </c>
       <c r="X28">
-        <v>22.134401614909386</v>
+        <v>20.0</v>
       </c>
       <c r="Y28">
         <v>0.0</v>
@@ -3052,13 +3052,13 @@
         <v>20.0</v>
       </c>
       <c r="U29">
-        <v>40.482839279207035</v>
+        <v>45.666666666666664</v>
       </c>
       <c r="V29">
-        <v>50.74724927003842</v>
+        <v>51.333333333333336</v>
       </c>
       <c r="W29">
-        <v>25.080582603371745</v>
+        <v>25.666666666666668</v>
       </c>
       <c r="X29">
         <v>0.0</v>
@@ -3126,13 +3126,13 @@
         <v>0.0</v>
       </c>
       <c r="T30">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="U30">
-        <v>0.0</v>
+        <v>21.764154510761813</v>
       </c>
       <c r="V30">
-        <v>0.0</v>
+        <v>23.666666666666668</v>
       </c>
       <c r="W30">
         <v>0.0</v>
@@ -3280,13 +3280,13 @@
         <v>0.0</v>
       </c>
       <c r="T32">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="U32">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="V32">
-        <v>37.0</v>
+        <v>0.0</v>
       </c>
       <c r="W32">
         <v>0.0</v>
@@ -3434,13 +3434,13 @@
         <v>0.0</v>
       </c>
       <c r="T34">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="U34">
-        <v>0.0</v>
+        <v>24.083448489254792</v>
       </c>
       <c r="V34">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="W34">
         <v>0.0</v>
@@ -3514,10 +3514,10 @@
         <v>0.0</v>
       </c>
       <c r="U35">
-        <v>94.70862885939226</v>
+        <v>82.8</v>
       </c>
       <c r="V35">
-        <v>82.80000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="W35">
         <v>0.0</v>
@@ -3594,7 +3594,7 @@
         <v>0.0</v>
       </c>
       <c r="V36">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="W36">
         <v>0.0</v>
@@ -4056,7 +4056,7 @@
         <v>0.0</v>
       </c>
       <c r="V42">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="W42">
         <v>0.0</v>
@@ -5305,76 +5305,76 @@
         <v>82</v>
       </c>
       <c r="B59">
-        <v>30.201302915488007</v>
+        <v>30.2013029155205</v>
       </c>
       <c r="C59">
-        <v>30.216887836808205</v>
+        <v>30.216887836839305</v>
       </c>
       <c r="D59">
-        <v>27.65648649818595</v>
+        <v>27.656486498221057</v>
       </c>
       <c r="E59">
-        <v>27.87257637721748</v>
+        <v>27.8725763772527</v>
       </c>
       <c r="F59">
-        <v>31.23474238761003</v>
+        <v>31.23474238763447</v>
       </c>
       <c r="G59">
-        <v>31.585165746151254</v>
+        <v>31.585165746175335</v>
       </c>
       <c r="H59">
-        <v>27.199662578449367</v>
+        <v>27.199662578481366</v>
       </c>
       <c r="I59">
-        <v>29.39850310547352</v>
+        <v>29.39850310550537</v>
       </c>
       <c r="J59">
-        <v>31.593022072128488</v>
+        <v>31.593022072163876</v>
       </c>
       <c r="K59">
-        <v>32.27782463873222</v>
+        <v>32.27782463876065</v>
       </c>
       <c r="L59">
-        <v>34.13917005017321</v>
+        <v>34.13917005019903</v>
       </c>
       <c r="M59">
-        <v>39.91891275416647</v>
+        <v>39.91891275419039</v>
       </c>
       <c r="N59">
-        <v>37.187681570171364</v>
+        <v>37.18768157019804</v>
       </c>
       <c r="O59">
-        <v>38.442406454120395</v>
+        <v>38.44240645415266</v>
       </c>
       <c r="P59">
-        <v>41.34365217052171</v>
+        <v>41.343652170544374</v>
       </c>
       <c r="Q59">
-        <v>46.70827182046109</v>
+        <v>46.70827182049106</v>
       </c>
       <c r="R59">
-        <v>44.18586476381239</v>
+        <v>44.18586476384371</v>
       </c>
       <c r="S59">
-        <v>39.578993889792336</v>
+        <v>39.57899388982332</v>
       </c>
       <c r="T59">
-        <v>36.830854176462005</v>
+        <v>36.830854176485445</v>
       </c>
       <c r="U59">
-        <v>36.60474820146062</v>
+        <v>36.604748201483744</v>
       </c>
       <c r="V59">
-        <v>34.02438690718151</v>
+        <v>34.02438690721465</v>
       </c>
       <c r="W59">
-        <v>31.961034462768325</v>
+        <v>31.961034462801763</v>
       </c>
       <c r="X59">
-        <v>29.837775766668877</v>
+        <v>29.837775766704</v>
       </c>
       <c r="Y59">
-        <v>30.09350654404287</v>
+        <v>30.093506544071715</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -5382,76 +5382,76 @@
         <v>83</v>
       </c>
       <c r="B60">
-        <v>33.81397499433127</v>
+        <v>33.813974994336604</v>
       </c>
       <c r="C60">
-        <v>32.05143091594877</v>
+        <v>32.05143091595528</v>
       </c>
       <c r="D60">
-        <v>30.38736802715704</v>
+        <v>30.387368027164484</v>
       </c>
       <c r="E60">
-        <v>26.743757556731467</v>
+        <v>26.743757556738274</v>
       </c>
       <c r="F60">
-        <v>27.75118733784752</v>
+        <v>27.75118733785348</v>
       </c>
       <c r="G60">
-        <v>26.324897757865223</v>
+        <v>26.32489775786962</v>
       </c>
       <c r="H60">
-        <v>29.67278192394227</v>
+        <v>29.672781923953153</v>
       </c>
       <c r="I60">
-        <v>31.91175594258223</v>
+        <v>31.91175594258675</v>
       </c>
       <c r="J60">
-        <v>30.244213869359125</v>
+        <v>30.24421386936592</v>
       </c>
       <c r="K60">
-        <v>28.85105525365166</v>
+        <v>28.85105525366089</v>
       </c>
       <c r="L60">
-        <v>33.408332860116175</v>
+        <v>33.40833286012639</v>
       </c>
       <c r="M60">
-        <v>37.96373367401346</v>
+        <v>37.96373367401975</v>
       </c>
       <c r="N60">
-        <v>39.8121931666337</v>
+        <v>39.81219316663919</v>
       </c>
       <c r="O60">
-        <v>40.24087220361492</v>
+        <v>40.2408722036198</v>
       </c>
       <c r="P60">
-        <v>39.423712308533176</v>
+        <v>39.423712308540416</v>
       </c>
       <c r="Q60">
-        <v>42.97511125518378</v>
+        <v>42.975111255189404</v>
       </c>
       <c r="R60">
-        <v>47.49242545749073</v>
+        <v>47.49242545749439</v>
       </c>
       <c r="S60">
-        <v>44.851772252640494</v>
+        <v>44.85177225264488</v>
       </c>
       <c r="T60">
-        <v>38.58710906157284</v>
+        <v>38.587109061576484</v>
       </c>
       <c r="U60">
-        <v>36.873810655659874</v>
+        <v>36.87381065567024</v>
       </c>
       <c r="V60">
-        <v>34.19415186991383</v>
+        <v>34.1941518699241</v>
       </c>
       <c r="W60">
-        <v>32.40935028119624</v>
+        <v>32.40935028120293</v>
       </c>
       <c r="X60">
-        <v>29.679360286268253</v>
+        <v>29.67936028627446</v>
       </c>
       <c r="Y60">
-        <v>29.934454475754006</v>
+        <v>29.934454475762323</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -5474,10 +5474,10 @@
         <v>29.227366833616347</v>
       </c>
       <c r="G61">
-        <v>31.572163663393983</v>
+        <v>31.57216366339398</v>
       </c>
       <c r="H61">
-        <v>26.450905568270276</v>
+        <v>26.450905568270272</v>
       </c>
       <c r="I61">
         <v>28.380277817815973</v>
@@ -5536,76 +5536,76 @@
         <v>85</v>
       </c>
       <c r="B62">
-        <v>29.955115788866827</v>
+        <v>29.955115788878174</v>
       </c>
       <c r="C62">
-        <v>30.215329761344684</v>
+        <v>30.215329761362227</v>
       </c>
       <c r="D62">
-        <v>29.232744103991433</v>
+        <v>29.23274410400336</v>
       </c>
       <c r="E62">
-        <v>30.121127816935083</v>
+        <v>30.12112781695032</v>
       </c>
       <c r="F62">
-        <v>28.052025662662796</v>
+        <v>28.052025662676897</v>
       </c>
       <c r="G62">
-        <v>28.900005708541816</v>
+        <v>28.900005708557728</v>
       </c>
       <c r="H62">
-        <v>28.574719601115305</v>
+        <v>28.57471960112889</v>
       </c>
       <c r="I62">
-        <v>27.225002991746326</v>
+        <v>27.225002991763176</v>
       </c>
       <c r="J62">
-        <v>31.44268978391461</v>
+        <v>31.44268978392938</v>
       </c>
       <c r="K62">
-        <v>30.967688403104592</v>
+        <v>30.96768840312143</v>
       </c>
       <c r="L62">
-        <v>30.65342129933403</v>
+        <v>30.653421299350157</v>
       </c>
       <c r="M62">
-        <v>33.1492373736753</v>
+        <v>33.149237373690994</v>
       </c>
       <c r="N62">
-        <v>37.944569399085296</v>
+        <v>37.944569399100146</v>
       </c>
       <c r="O62">
-        <v>41.16232496204478</v>
+        <v>41.162324962060666</v>
       </c>
       <c r="P62">
-        <v>41.72478516842348</v>
+        <v>41.72478516843694</v>
       </c>
       <c r="Q62">
-        <v>42.32248450548523</v>
+        <v>42.32248450550105</v>
       </c>
       <c r="R62">
-        <v>48.80392675878723</v>
+        <v>48.803926758802845</v>
       </c>
       <c r="S62">
-        <v>38.97354447939641</v>
+        <v>38.97354447941325</v>
       </c>
       <c r="T62">
-        <v>40.66303643455567</v>
+        <v>40.66303643456922</v>
       </c>
       <c r="U62">
-        <v>36.761374851754326</v>
+        <v>36.76137485176878</v>
       </c>
       <c r="V62">
-        <v>35.84857505365359</v>
+        <v>35.848575053671084</v>
       </c>
       <c r="W62">
-        <v>33.3045159625946</v>
+        <v>33.30451596261264</v>
       </c>
       <c r="X62">
-        <v>32.063261603495185</v>
+        <v>32.06326160350727</v>
       </c>
       <c r="Y62">
-        <v>32.730135101473245</v>
+        <v>32.730135101490305</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -5634,7 +5634,7 @@
         <v>26.278242869411667</v>
       </c>
       <c r="I63">
-        <v>29.81332649506705</v>
+        <v>29.813326495067045</v>
       </c>
       <c r="J63">
         <v>32.84296604189241</v>
@@ -5676,10 +5676,10 @@
         <v>39.480654678144475</v>
       </c>
       <c r="W63">
-        <v>32.19512787989655</v>
+        <v>32.195127879896546</v>
       </c>
       <c r="X63">
-        <v>31.375208384505353</v>
+        <v>31.375208384505356</v>
       </c>
       <c r="Y63">
         <v>31.00153192566154</v>
@@ -5690,76 +5690,76 @@
         <v>87</v>
       </c>
       <c r="B64">
-        <v>32.14487319842481</v>
+        <v>32.144873198427376</v>
       </c>
       <c r="C64">
-        <v>32.23261720627651</v>
+        <v>32.23261720627852</v>
       </c>
       <c r="D64">
-        <v>26.598222776263015</v>
+        <v>26.598222776265175</v>
       </c>
       <c r="E64">
-        <v>29.67477199691377</v>
+        <v>29.674771996915297</v>
       </c>
       <c r="F64">
-        <v>27.368372648196218</v>
+        <v>27.368372648197692</v>
       </c>
       <c r="G64">
-        <v>31.418649454918672</v>
+        <v>31.41864945492125</v>
       </c>
       <c r="H64">
-        <v>26.106455529916147</v>
+        <v>26.106455529918094</v>
       </c>
       <c r="I64">
-        <v>26.882703426199093</v>
+        <v>26.88270342620126</v>
       </c>
       <c r="J64">
-        <v>31.73951808047861</v>
+        <v>31.739518080479684</v>
       </c>
       <c r="K64">
-        <v>34.74160461258732</v>
+        <v>34.74160461258907</v>
       </c>
       <c r="L64">
-        <v>30.255832962309015</v>
+        <v>30.255832962311615</v>
       </c>
       <c r="M64">
-        <v>35.046054081442485</v>
+        <v>35.0460540814438</v>
       </c>
       <c r="N64">
-        <v>37.24219817556228</v>
+        <v>37.24219817556332</v>
       </c>
       <c r="O64">
-        <v>39.180385086833134</v>
+        <v>39.180385086834576</v>
       </c>
       <c r="P64">
-        <v>43.663574425837176</v>
+        <v>43.663574425838306</v>
       </c>
       <c r="Q64">
-        <v>45.797676649223256</v>
+        <v>45.79767664922474</v>
       </c>
       <c r="R64">
-        <v>49.34737867685328</v>
+        <v>49.34737867685544</v>
       </c>
       <c r="S64">
-        <v>38.9847699534672</v>
+        <v>38.98476995346937</v>
       </c>
       <c r="T64">
-        <v>36.231842179517876</v>
+        <v>36.231842179518935</v>
       </c>
       <c r="U64">
-        <v>35.51123522363847</v>
+        <v>35.51123522364105</v>
       </c>
       <c r="V64">
-        <v>36.10851667652099</v>
+        <v>36.10851667652241</v>
       </c>
       <c r="W64">
-        <v>38.36584157332771</v>
+        <v>38.36584157332982</v>
       </c>
       <c r="X64">
-        <v>35.74135519930203</v>
+        <v>35.74135519930314</v>
       </c>
       <c r="Y64">
-        <v>33.73550703154191</v>
+        <v>33.73550703154433</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -5844,76 +5844,76 @@
         <v>89</v>
       </c>
       <c r="B66">
-        <v>30.545436725545112</v>
+        <v>30.545436725547916</v>
       </c>
       <c r="C66">
-        <v>27.055908337536287</v>
+        <v>27.055908337539222</v>
       </c>
       <c r="D66">
-        <v>27.57635754363182</v>
+        <v>27.576357543635822</v>
       </c>
       <c r="E66">
-        <v>30.931162940642217</v>
+        <v>30.931162940645663</v>
       </c>
       <c r="F66">
-        <v>26.658081062931927</v>
+        <v>26.658081062934798</v>
       </c>
       <c r="G66">
-        <v>27.826886813192008</v>
+        <v>27.826886813196325</v>
       </c>
       <c r="H66">
-        <v>29.924123549333558</v>
+        <v>29.92412354933731</v>
       </c>
       <c r="I66">
-        <v>30.25212569270948</v>
+        <v>30.25212569271389</v>
       </c>
       <c r="J66">
-        <v>29.4510816422012</v>
+        <v>29.45108164220437</v>
       </c>
       <c r="K66">
-        <v>34.513468845663404</v>
+        <v>34.513468845667376</v>
       </c>
       <c r="L66">
-        <v>34.159233928066286</v>
+        <v>34.159233928070535</v>
       </c>
       <c r="M66">
-        <v>35.13812990011715</v>
+        <v>35.138129900120475</v>
       </c>
       <c r="N66">
-        <v>35.79355926385198</v>
+        <v>35.79355926385506</v>
       </c>
       <c r="O66">
-        <v>39.7606450096216</v>
+        <v>39.76064500962457</v>
       </c>
       <c r="P66">
-        <v>41.48535715706258</v>
+        <v>41.485357157065664</v>
       </c>
       <c r="Q66">
-        <v>39.77297123129113</v>
+        <v>39.77297123129392</v>
       </c>
       <c r="R66">
-        <v>47.66460226081331</v>
+        <v>47.66460226081654</v>
       </c>
       <c r="S66">
-        <v>41.08478454272978</v>
+        <v>41.08478454273427</v>
       </c>
       <c r="T66">
-        <v>37.63603563965544</v>
+        <v>37.636035639659895</v>
       </c>
       <c r="U66">
-        <v>33.05056826662605</v>
+        <v>33.05056826662985</v>
       </c>
       <c r="V66">
-        <v>37.42859846799426</v>
+        <v>37.42859846799729</v>
       </c>
       <c r="W66">
-        <v>32.74183614119846</v>
+        <v>32.74183614120193</v>
       </c>
       <c r="X66">
-        <v>33.78726750066719</v>
+        <v>33.78726750067108</v>
       </c>
       <c r="Y66">
-        <v>31.40826509887642</v>
+        <v>31.408265098880292</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -5998,61 +5998,61 @@
         <v>91</v>
       </c>
       <c r="B68">
-        <v>29.388504838422215</v>
+        <v>29.388504838425433</v>
       </c>
       <c r="C68">
-        <v>30.938780452566494</v>
+        <v>30.938780452570427</v>
       </c>
       <c r="D68">
-        <v>29.548951146991136</v>
+        <v>29.548951146995023</v>
       </c>
       <c r="E68">
-        <v>28.86629384423379</v>
+        <v>28.86629384423759</v>
       </c>
       <c r="F68">
-        <v>31.501076491545465</v>
+        <v>31.50107649154961</v>
       </c>
       <c r="G68">
-        <v>26.53672144675478</v>
+        <v>26.536721446758747</v>
       </c>
       <c r="H68">
-        <v>26.502053804232922</v>
+        <v>26.50205380423722</v>
       </c>
       <c r="I68">
-        <v>26.775540376510524</v>
+        <v>26.775540376514982</v>
       </c>
       <c r="J68">
-        <v>32.74746194589633</v>
+        <v>32.747461945900795</v>
       </c>
       <c r="K68">
-        <v>32.63726753445673</v>
+        <v>32.63726753446099</v>
       </c>
       <c r="L68">
-        <v>33.46544108223895</v>
+        <v>33.46544108224225</v>
       </c>
       <c r="M68">
-        <v>38.929997385549854</v>
+        <v>38.92999738555409</v>
       </c>
       <c r="N68">
-        <v>38.18496595124729</v>
+        <v>38.1849659512518</v>
       </c>
       <c r="O68">
-        <v>42.469195590341435</v>
+        <v>42.46919559034541</v>
       </c>
       <c r="P68">
-        <v>42.59021474553847</v>
+        <v>42.59021474554174</v>
       </c>
       <c r="Q68">
-        <v>46.27851141063363</v>
+        <v>46.27851141063729</v>
       </c>
       <c r="R68">
-        <v>44.06733213698794</v>
+        <v>44.06733213699226</v>
       </c>
       <c r="S68">
-        <v>42.2661098828889</v>
+        <v>42.266109882892124</v>
       </c>
       <c r="T68">
-        <v>38.175353665340566</v>
+        <v>38.17535366534503</v>
       </c>
       <c r="U68">
         <v>31.965544036514522</v>
@@ -6537,76 +6537,76 @@
         <v>98</v>
       </c>
       <c r="B75">
-        <v>33.33055303203728</v>
+        <v>33.330553032050375</v>
       </c>
       <c r="C75">
-        <v>27.180690797868394</v>
+        <v>27.180690797889838</v>
       </c>
       <c r="D75">
-        <v>25.43992709396782</v>
+        <v>25.43992709397571</v>
       </c>
       <c r="E75">
-        <v>27.785319788166994</v>
+        <v>27.78531978817773</v>
       </c>
       <c r="F75">
-        <v>29.36108279221097</v>
+        <v>29.361082792223897</v>
       </c>
       <c r="G75">
-        <v>31.311041464148985</v>
+        <v>31.311041464170557</v>
       </c>
       <c r="H75">
-        <v>29.257471172551448</v>
+        <v>29.257471172561054</v>
       </c>
       <c r="I75">
-        <v>32.15238470806472</v>
+        <v>32.152384708082536</v>
       </c>
       <c r="J75">
-        <v>28.147192226608198</v>
+        <v>28.147192226620973</v>
       </c>
       <c r="K75">
-        <v>28.87875563453014</v>
+        <v>28.878755634548725</v>
       </c>
       <c r="L75">
-        <v>34.824886371718115</v>
+        <v>34.82488637173083</v>
       </c>
       <c r="M75">
-        <v>34.880615381448266</v>
+        <v>34.88061538146576</v>
       </c>
       <c r="N75">
-        <v>38.96499708034336</v>
+        <v>38.964997080358444</v>
       </c>
       <c r="O75">
-        <v>40.708185539494615</v>
+        <v>40.70818553950812</v>
       </c>
       <c r="P75">
-        <v>43.11437753345366</v>
+        <v>43.114377533463994</v>
       </c>
       <c r="Q75">
-        <v>42.60813801529514</v>
+        <v>42.608138015304576</v>
       </c>
       <c r="R75">
-        <v>48.93229032691155</v>
+        <v>48.93229032692034</v>
       </c>
       <c r="S75">
-        <v>39.64314922833067</v>
+        <v>39.643149228344555</v>
       </c>
       <c r="T75">
-        <v>37.031196260111265</v>
+        <v>37.03119626012631</v>
       </c>
       <c r="U75">
-        <v>33.07623956559067</v>
+        <v>33.07623956560565</v>
       </c>
       <c r="V75">
-        <v>38.75112598901846</v>
+        <v>38.7511259890307</v>
       </c>
       <c r="W75">
-        <v>38.55412969224504</v>
+        <v>38.554129692260176</v>
       </c>
       <c r="X75">
-        <v>29.597810391119264</v>
+        <v>29.597810391132953</v>
       </c>
       <c r="Y75">
-        <v>33.32582442162769</v>
+        <v>33.3258244216413</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -6614,76 +6614,76 @@
         <v>99</v>
       </c>
       <c r="B76">
-        <v>31.213091767958613</v>
+        <v>31.213091767959668</v>
       </c>
       <c r="C76">
-        <v>29.260831785016254</v>
+        <v>29.260831785017217</v>
       </c>
       <c r="D76">
-        <v>29.539119468436535</v>
+        <v>29.539119468437093</v>
       </c>
       <c r="E76">
-        <v>26.1590100692271</v>
+        <v>26.159010069228316</v>
       </c>
       <c r="F76">
-        <v>26.5733982353587</v>
+        <v>26.57339823535949</v>
       </c>
       <c r="G76">
-        <v>31.88529543050484</v>
+        <v>31.885295430505717</v>
       </c>
       <c r="H76">
-        <v>31.24163997426197</v>
+        <v>31.24163997426331</v>
       </c>
       <c r="I76">
-        <v>32.45922389366869</v>
+        <v>32.45922389366933</v>
       </c>
       <c r="J76">
-        <v>31.93801529266747</v>
+        <v>31.93801529266875</v>
       </c>
       <c r="K76">
-        <v>30.86121924041706</v>
+        <v>30.861219240417995</v>
       </c>
       <c r="L76">
-        <v>33.50287632033061</v>
+        <v>33.50287632033177</v>
       </c>
       <c r="M76">
-        <v>36.69248783757439</v>
+        <v>36.692487837575754</v>
       </c>
       <c r="N76">
-        <v>36.47278263458572</v>
+        <v>36.47278263458701</v>
       </c>
       <c r="O76">
-        <v>43.61443849490059</v>
+        <v>43.61443849490115</v>
       </c>
       <c r="P76">
-        <v>39.94662709276479</v>
+        <v>39.94662709276599</v>
       </c>
       <c r="Q76">
-        <v>41.759748813558765</v>
+        <v>41.75974881355978</v>
       </c>
       <c r="R76">
-        <v>40.99408471571287</v>
+        <v>40.994084715714045</v>
       </c>
       <c r="S76">
-        <v>40.54007144628137</v>
+        <v>40.54007144628213</v>
       </c>
       <c r="T76">
-        <v>35.00166805651224</v>
+        <v>35.001668056513154</v>
       </c>
       <c r="U76">
-        <v>37.49296496951533</v>
+        <v>37.492964969515924</v>
       </c>
       <c r="V76">
-        <v>36.08565406621749</v>
+        <v>36.08565406621801</v>
       </c>
       <c r="W76">
-        <v>38.643171038313675</v>
+        <v>38.643171038314904</v>
       </c>
       <c r="X76">
-        <v>30.05437468939243</v>
+        <v>30.054374689393626</v>
       </c>
       <c r="Y76">
-        <v>31.755022945425765</v>
+        <v>31.75502294542639</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -6691,61 +6691,61 @@
         <v>100</v>
       </c>
       <c r="B77">
-        <v>33.89109682352464</v>
+        <v>33.891096823557746</v>
       </c>
       <c r="C77">
-        <v>29.26242102292563</v>
+        <v>29.262421022955095</v>
       </c>
       <c r="D77">
-        <v>28.096441887025886</v>
+        <v>28.096441887057154</v>
       </c>
       <c r="E77">
-        <v>26.037960638753994</v>
+        <v>26.0379606387869</v>
       </c>
       <c r="F77">
-        <v>31.348173509363587</v>
+        <v>31.348173509395565</v>
       </c>
       <c r="G77">
-        <v>27.589131929774503</v>
+        <v>27.58913192980981</v>
       </c>
       <c r="H77">
-        <v>28.901275039133406</v>
+        <v>28.901275039155735</v>
       </c>
       <c r="I77">
-        <v>31.54624897390271</v>
+        <v>31.546248973929323</v>
       </c>
       <c r="J77">
-        <v>30.399842199814437</v>
+        <v>30.39984219984035</v>
       </c>
       <c r="K77">
-        <v>29.155459951998964</v>
+        <v>29.15545995203138</v>
       </c>
       <c r="L77">
-        <v>31.175269437646012</v>
+        <v>31.175269437677343</v>
       </c>
       <c r="M77">
-        <v>36.742250535339345</v>
+        <v>36.742250535375206</v>
       </c>
       <c r="N77">
-        <v>38.31282660525087</v>
+        <v>38.31282660528086</v>
       </c>
       <c r="O77">
-        <v>41.719560854738056</v>
+        <v>41.719560854762676</v>
       </c>
       <c r="P77">
-        <v>45.009729388670124</v>
+        <v>45.00972938869381</v>
       </c>
       <c r="Q77">
-        <v>39.56534118974157</v>
+        <v>39.565341189765604</v>
       </c>
       <c r="R77">
-        <v>45.3405957405935</v>
+        <v>45.34059574062121</v>
       </c>
       <c r="S77">
-        <v>44.20018906964581</v>
+        <v>44.20018906967016</v>
       </c>
       <c r="T77">
-        <v>39.591645675665724</v>
+        <v>39.59164567569678</v>
       </c>
       <c r="U77">
         <v>32.68826322867179</v>
@@ -6768,76 +6768,76 @@
         <v>101</v>
       </c>
       <c r="B78">
-        <v>28.688300901152775</v>
+        <v>28.688300901156254</v>
       </c>
       <c r="C78">
-        <v>28.244780335603263</v>
+        <v>28.244780335606265</v>
       </c>
       <c r="D78">
-        <v>27.835613385625688</v>
+        <v>27.835613385628676</v>
       </c>
       <c r="E78">
-        <v>29.482205838717878</v>
+        <v>29.48220583872171</v>
       </c>
       <c r="F78">
-        <v>31.014209878937315</v>
+        <v>31.014209878940164</v>
       </c>
       <c r="G78">
-        <v>27.61432029580596</v>
+        <v>27.614320295810103</v>
       </c>
       <c r="H78">
-        <v>27.61904042140425</v>
+        <v>27.6190404214085</v>
       </c>
       <c r="I78">
-        <v>30.365685436555523</v>
+        <v>30.365685436559943</v>
       </c>
       <c r="J78">
-        <v>28.556675642506484</v>
+        <v>28.556675642510527</v>
       </c>
       <c r="K78">
-        <v>30.1421032399972</v>
+        <v>30.142103240001234</v>
       </c>
       <c r="L78">
-        <v>34.915517687910715</v>
+        <v>34.91551768791396</v>
       </c>
       <c r="M78">
-        <v>36.64282939846689</v>
+        <v>36.642829398469985</v>
       </c>
       <c r="N78">
-        <v>36.341114484658874</v>
+        <v>36.341114484663194</v>
       </c>
       <c r="O78">
-        <v>39.67608232394399</v>
+        <v>39.67608232394741</v>
       </c>
       <c r="P78">
-        <v>42.11354263529726</v>
+        <v>42.1135426353012</v>
       </c>
       <c r="Q78">
-        <v>40.480839538557085</v>
+        <v>40.48083953856076</v>
       </c>
       <c r="R78">
-        <v>48.46915279303098</v>
+        <v>48.46915279303539</v>
       </c>
       <c r="S78">
-        <v>46.40115966551792</v>
+        <v>46.401159665521845</v>
       </c>
       <c r="T78">
-        <v>35.26846351905967</v>
+        <v>35.268463519063516</v>
       </c>
       <c r="U78">
-        <v>36.90557354923436</v>
+        <v>36.9055735492384</v>
       </c>
       <c r="V78">
-        <v>33.067174142858676</v>
+        <v>33.067174142861404</v>
       </c>
       <c r="W78">
-        <v>37.5622256816682</v>
+        <v>37.56222568167141</v>
       </c>
       <c r="X78">
-        <v>35.241316280086814</v>
+        <v>35.24131628009127</v>
       </c>
       <c r="Y78">
-        <v>28.918803760815575</v>
+        <v>28.918803760820083</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -6845,61 +6845,61 @@
         <v>102</v>
       </c>
       <c r="B79">
-        <v>32.34266361145144</v>
+        <v>32.342663611453645</v>
       </c>
       <c r="C79">
-        <v>28.084820044856638</v>
+        <v>28.084820044858134</v>
       </c>
       <c r="D79">
-        <v>29.020962358122148</v>
+        <v>29.020962358124052</v>
       </c>
       <c r="E79">
-        <v>30.518412587601134</v>
+        <v>30.518412587603052</v>
       </c>
       <c r="F79">
-        <v>28.722276732032114</v>
+        <v>28.722276732033606</v>
       </c>
       <c r="G79">
-        <v>26.82824681503959</v>
+        <v>26.828246815040984</v>
       </c>
       <c r="H79">
-        <v>30.87341388096984</v>
+        <v>30.873413880971384</v>
       </c>
       <c r="I79">
-        <v>32.51564935103074</v>
+        <v>32.51564935103215</v>
       </c>
       <c r="J79">
-        <v>28.461100788049695</v>
+        <v>28.461100788051226</v>
       </c>
       <c r="K79">
-        <v>29.049501897983376</v>
+        <v>29.049501897985465</v>
       </c>
       <c r="L79">
-        <v>35.03489558787936</v>
+        <v>35.03489558788078</v>
       </c>
       <c r="M79">
-        <v>35.016335245005685</v>
+        <v>35.01633524500721</v>
       </c>
       <c r="N79">
-        <v>39.61041293250496</v>
+        <v>39.61041293250673</v>
       </c>
       <c r="O79">
-        <v>42.911453108211916</v>
+        <v>42.91145310821412</v>
       </c>
       <c r="P79">
-        <v>45.51970512789908</v>
+        <v>45.519705127901034</v>
       </c>
       <c r="Q79">
-        <v>46.34527578668287</v>
+        <v>46.3452757866844</v>
       </c>
       <c r="R79">
-        <v>45.51156829866888</v>
+        <v>45.51156829867068</v>
       </c>
       <c r="S79">
-        <v>42.071226667433955</v>
+        <v>42.07122666743544</v>
       </c>
       <c r="T79">
-        <v>36.121593224968976</v>
+        <v>36.12159322497064</v>
       </c>
       <c r="U79">
         <v>32.12009880121266</v>
@@ -6922,76 +6922,76 @@
         <v>103</v>
       </c>
       <c r="B80">
-        <v>32.64524982318713</v>
+        <v>32.64524982319017</v>
       </c>
       <c r="C80">
-        <v>30.255317846260407</v>
+        <v>30.255317846264006</v>
       </c>
       <c r="D80">
-        <v>27.21673082966893</v>
+        <v>27.216730829672088</v>
       </c>
       <c r="E80">
-        <v>27.39563228947442</v>
+        <v>27.395632289477362</v>
       </c>
       <c r="F80">
-        <v>29.239559872262806</v>
+        <v>29.23955987226691</v>
       </c>
       <c r="G80">
-        <v>31.660655513953877</v>
+        <v>31.660655513956954</v>
       </c>
       <c r="H80">
-        <v>25.85874196078263</v>
+        <v>25.858741960786574</v>
       </c>
       <c r="I80">
-        <v>27.356205310129948</v>
+        <v>27.3562053101341</v>
       </c>
       <c r="J80">
-        <v>32.13742282924598</v>
+        <v>32.13742282924977</v>
       </c>
       <c r="K80">
-        <v>34.68305710230035</v>
+        <v>34.68305710230379</v>
       </c>
       <c r="L80">
-        <v>33.29355775291189</v>
+        <v>33.29355775291515</v>
       </c>
       <c r="M80">
-        <v>33.35965253744362</v>
+        <v>33.35965253744689</v>
       </c>
       <c r="N80">
-        <v>37.39571938526735</v>
+        <v>37.39571938527115</v>
       </c>
       <c r="O80">
-        <v>42.93675163948105</v>
+        <v>42.93675163948501</v>
       </c>
       <c r="P80">
-        <v>40.87069601703658</v>
+        <v>40.870696017040245</v>
       </c>
       <c r="Q80">
-        <v>42.655719753205084</v>
+        <v>42.65571975320927</v>
       </c>
       <c r="R80">
-        <v>43.15716413514767</v>
+        <v>43.157164135151106</v>
       </c>
       <c r="S80">
-        <v>39.28502150957562</v>
+        <v>39.285021509578655</v>
       </c>
       <c r="T80">
-        <v>37.54063979514398</v>
+        <v>37.54063979514831</v>
       </c>
       <c r="U80">
-        <v>32.71778283559777</v>
+        <v>32.71778283560161</v>
       </c>
       <c r="V80">
-        <v>33.96086071438701</v>
+        <v>33.96086071439095</v>
       </c>
       <c r="W80">
-        <v>38.46461625273719</v>
+        <v>38.4646162527406</v>
       </c>
       <c r="X80">
-        <v>33.18079733438484</v>
+        <v>33.180797334389354</v>
       </c>
       <c r="Y80">
-        <v>30.25998669158334</v>
+        <v>30.259986691586164</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -7076,76 +7076,76 @@
         <v>105</v>
       </c>
       <c r="B82">
-        <v>29.33266593743467</v>
+        <v>29.332665937439742</v>
       </c>
       <c r="C82">
-        <v>31.68026341963443</v>
+        <v>31.680263419639232</v>
       </c>
       <c r="D82">
-        <v>25.83492062631289</v>
+        <v>25.834920634920636</v>
       </c>
       <c r="E82">
-        <v>28.574091684162</v>
+        <v>28.57409168416416</v>
       </c>
       <c r="F82">
-        <v>28.74626216726302</v>
+        <v>28.74626216726756</v>
       </c>
       <c r="G82">
-        <v>26.394636945505074</v>
+        <v>26.394636945507955</v>
       </c>
       <c r="H82">
-        <v>28.469618823388725</v>
+        <v>28.46961882339383</v>
       </c>
       <c r="I82">
-        <v>29.969148850623167</v>
+        <v>29.96914885062506</v>
       </c>
       <c r="J82">
-        <v>28.876732782356314</v>
+        <v>28.876732782358886</v>
       </c>
       <c r="K82">
-        <v>34.12630577603514</v>
+        <v>34.12630577603704</v>
       </c>
       <c r="L82">
-        <v>31.614925240730173</v>
+        <v>31.61492524073401</v>
       </c>
       <c r="M82">
-        <v>33.312328205288644</v>
+        <v>33.312328205291124</v>
       </c>
       <c r="N82">
-        <v>35.60621845380524</v>
+        <v>35.60621845380956</v>
       </c>
       <c r="O82">
-        <v>42.13954687502921</v>
+        <v>42.139546875034284</v>
       </c>
       <c r="P82">
-        <v>43.828754443872384</v>
+        <v>43.82875444387537</v>
       </c>
       <c r="Q82">
-        <v>42.398071718592604</v>
+        <v>42.39807171859502</v>
       </c>
       <c r="R82">
-        <v>43.43044965988443</v>
+        <v>43.430449659888836</v>
       </c>
       <c r="S82">
-        <v>46.27364728352703</v>
+        <v>46.27364728353132</v>
       </c>
       <c r="T82">
-        <v>39.4466158229615</v>
+        <v>39.44661582296612</v>
       </c>
       <c r="U82">
-        <v>31.872753037527946</v>
+        <v>31.872753037532675</v>
       </c>
       <c r="V82">
-        <v>38.04840378064559</v>
+        <v>38.048403780649096</v>
       </c>
       <c r="W82">
-        <v>32.36815049423844</v>
+        <v>32.36815049424331</v>
       </c>
       <c r="X82">
-        <v>29.826169103513767</v>
+        <v>29.826169103518623</v>
       </c>
       <c r="Y82">
-        <v>34.204723799214634</v>
+        <v>34.20472379921921</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -7153,76 +7153,76 @@
         <v>106</v>
       </c>
       <c r="B83">
-        <v>28.294176352212805</v>
+        <v>28.29417635221398</v>
       </c>
       <c r="C83">
-        <v>28.390100290993928</v>
+        <v>28.39010029099518</v>
       </c>
       <c r="D83">
-        <v>25.581015635821426</v>
+        <v>25.58101563582386</v>
       </c>
       <c r="E83">
-        <v>29.40038381941019</v>
+        <v>29.400383819411218</v>
       </c>
       <c r="F83">
-        <v>26.89152753881283</v>
+        <v>26.891527538815353</v>
       </c>
       <c r="G83">
-        <v>30.975923649974085</v>
+        <v>30.97592364997581</v>
       </c>
       <c r="H83">
-        <v>29.97597140191198</v>
+        <v>29.97597140191465</v>
       </c>
       <c r="I83">
-        <v>30.911284501978987</v>
+        <v>30.911284501980845</v>
       </c>
       <c r="J83">
-        <v>31.606261727796717</v>
+        <v>31.606261727798483</v>
       </c>
       <c r="K83">
-        <v>30.55703616399774</v>
+        <v>30.557036164000237</v>
       </c>
       <c r="L83">
-        <v>32.62655202386515</v>
+        <v>32.62655202386668</v>
       </c>
       <c r="M83">
-        <v>34.11580955152189</v>
+        <v>34.11580955152385</v>
       </c>
       <c r="N83">
-        <v>38.62625338558945</v>
+        <v>38.62625338559155</v>
       </c>
       <c r="O83">
-        <v>41.839165257244126</v>
+        <v>41.83916525724635</v>
       </c>
       <c r="P83">
-        <v>41.102086446845426</v>
+        <v>41.10208644684644</v>
       </c>
       <c r="Q83">
-        <v>44.238483296483246</v>
+        <v>44.238483296485356</v>
       </c>
       <c r="R83">
-        <v>45.950248205342625</v>
+        <v>45.950248205344906</v>
       </c>
       <c r="S83">
-        <v>44.89744338192811</v>
+        <v>44.897443381929406</v>
       </c>
       <c r="T83">
-        <v>37.510740961715456</v>
+        <v>37.5107409617176</v>
       </c>
       <c r="U83">
-        <v>32.92590704020984</v>
+        <v>32.925907040211314</v>
       </c>
       <c r="V83">
-        <v>35.40760751593317</v>
+        <v>35.407607515935524</v>
       </c>
       <c r="W83">
-        <v>34.16610591659158</v>
+        <v>34.16610591659264</v>
       </c>
       <c r="X83">
-        <v>32.554948052716256</v>
+        <v>32.55494805271883</v>
       </c>
       <c r="Y83">
-        <v>33.60762610121278</v>
+        <v>33.60762610121492</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -7307,76 +7307,76 @@
         <v>108</v>
       </c>
       <c r="B85">
-        <v>32.70957864873753</v>
+        <v>32.70957864874799</v>
       </c>
       <c r="C85">
-        <v>28.543093657370644</v>
+        <v>28.54309365737572</v>
       </c>
       <c r="D85">
-        <v>26.08850735907049</v>
+        <v>26.088507359076175</v>
       </c>
       <c r="E85">
-        <v>27.219059989354527</v>
+        <v>27.219059989358357</v>
       </c>
       <c r="F85">
-        <v>28.94665230336941</v>
+        <v>28.94665230337705</v>
       </c>
       <c r="G85">
-        <v>28.546681929309553</v>
+        <v>28.546681929314218</v>
       </c>
       <c r="H85">
-        <v>28.49082952023013</v>
+        <v>28.490829520240368</v>
       </c>
       <c r="I85">
-        <v>32.46282111437419</v>
+        <v>32.46282111437904</v>
       </c>
       <c r="J85">
-        <v>29.84585876138534</v>
+        <v>29.845858761393174</v>
       </c>
       <c r="K85">
-        <v>33.51701370026997</v>
+        <v>33.51701370027877</v>
       </c>
       <c r="L85">
-        <v>33.06372632300335</v>
+        <v>33.06372632300918</v>
       </c>
       <c r="M85">
-        <v>34.849140870563524</v>
+        <v>34.84914087057405</v>
       </c>
       <c r="N85">
-        <v>40.91360330532039</v>
+        <v>40.91360330532916</v>
       </c>
       <c r="O85">
-        <v>37.7740543836224</v>
+        <v>37.77405438362621</v>
       </c>
       <c r="P85">
-        <v>39.61366015622124</v>
+        <v>39.61366015623207</v>
       </c>
       <c r="Q85">
-        <v>45.66621529044989</v>
+        <v>45.66621529045369</v>
       </c>
       <c r="R85">
-        <v>42.27439752715895</v>
+        <v>42.274397527166</v>
       </c>
       <c r="S85">
-        <v>42.11500939211098</v>
+        <v>42.11500939211692</v>
       </c>
       <c r="T85">
-        <v>40.629535714479836</v>
+        <v>40.62953571448452</v>
       </c>
       <c r="U85">
-        <v>36.0212276623158</v>
+        <v>36.0212276623206</v>
       </c>
       <c r="V85">
-        <v>34.1452333139361</v>
+        <v>34.14523331394594</v>
       </c>
       <c r="W85">
-        <v>34.51905418379094</v>
+        <v>34.51905418379465</v>
       </c>
       <c r="X85">
-        <v>29.734980120914063</v>
+        <v>29.734980120920227</v>
       </c>
       <c r="Y85">
-        <v>31.444065661183192</v>
+        <v>31.444065661191416</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -7384,76 +7384,76 @@
         <v>109</v>
       </c>
       <c r="B86">
-        <v>34.13942567108113</v>
+        <v>34.13942567108279</v>
       </c>
       <c r="C86">
-        <v>31.059837996407378</v>
+        <v>31.059837996408532</v>
       </c>
       <c r="D86">
-        <v>27.532177574054444</v>
+        <v>27.532177574055822</v>
       </c>
       <c r="E86">
-        <v>31.144757085207544</v>
+        <v>31.144757085208767</v>
       </c>
       <c r="F86">
-        <v>29.078073534971455</v>
+        <v>29.078073534972646</v>
       </c>
       <c r="G86">
-        <v>29.348312143205973</v>
+        <v>29.348312143207295</v>
       </c>
       <c r="H86">
-        <v>30.86739186887385</v>
+        <v>30.86739186887644</v>
       </c>
       <c r="I86">
-        <v>26.788821177575205</v>
+        <v>26.78882117757712</v>
       </c>
       <c r="J86">
-        <v>29.816003701264084</v>
+        <v>29.8160037012658</v>
       </c>
       <c r="K86">
-        <v>34.72529822862543</v>
+        <v>34.72529822862634</v>
       </c>
       <c r="L86">
-        <v>32.37349482739005</v>
+        <v>32.37349482739228</v>
       </c>
       <c r="M86">
-        <v>34.61541382135264</v>
+        <v>34.615413821355105</v>
       </c>
       <c r="N86">
-        <v>37.93486090804627</v>
+        <v>37.934860908047995</v>
       </c>
       <c r="O86">
-        <v>37.237119656972574</v>
+        <v>37.237119656974755</v>
       </c>
       <c r="P86">
-        <v>38.51910767483361</v>
+        <v>38.51910767483605</v>
       </c>
       <c r="Q86">
-        <v>39.053755851029926</v>
+        <v>39.05375585103138</v>
       </c>
       <c r="R86">
-        <v>46.79486523336684</v>
+        <v>46.79486523336891</v>
       </c>
       <c r="S86">
-        <v>44.02149320367227</v>
+        <v>44.021493203674254</v>
       </c>
       <c r="T86">
-        <v>35.012701826918295</v>
+        <v>35.01270182691951</v>
       </c>
       <c r="U86">
-        <v>36.89511211014568</v>
+        <v>36.89511211014724</v>
       </c>
       <c r="V86">
-        <v>36.57060648043485</v>
+        <v>36.570606480436254</v>
       </c>
       <c r="W86">
-        <v>38.25752485850277</v>
+        <v>38.25752485850535</v>
       </c>
       <c r="X86">
-        <v>35.50818635183344</v>
+        <v>35.50818635183532</v>
       </c>
       <c r="Y86">
-        <v>32.03727906773446</v>
+        <v>32.03727906773565</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -7615,76 +7615,76 @@
         <v>112</v>
       </c>
       <c r="B89">
-        <v>31.976215523484925</v>
+        <v>31.976215523489373</v>
       </c>
       <c r="C89">
-        <v>27.619657003505058</v>
+        <v>27.61965700350811</v>
       </c>
       <c r="D89">
-        <v>30.348541877397142</v>
+        <v>30.348541877401658</v>
       </c>
       <c r="E89">
-        <v>28.825465984317514</v>
+        <v>28.825465984320545</v>
       </c>
       <c r="F89">
-        <v>28.02419975582013</v>
+        <v>28.024199755824156</v>
       </c>
       <c r="G89">
-        <v>30.712962373863764</v>
+        <v>30.712962373867413</v>
       </c>
       <c r="H89">
-        <v>26.454257894170368</v>
+        <v>26.45425789417459</v>
       </c>
       <c r="I89">
-        <v>27.56854323430281</v>
+        <v>27.56854323430707</v>
       </c>
       <c r="J89">
-        <v>31.613485959036193</v>
+        <v>31.61348595904019</v>
       </c>
       <c r="K89">
-        <v>31.110922466614454</v>
+        <v>31.11092246661792</v>
       </c>
       <c r="L89">
-        <v>33.23258905997492</v>
+        <v>33.232589059978636</v>
       </c>
       <c r="M89">
-        <v>35.7600041050151</v>
+        <v>35.76000410501911</v>
       </c>
       <c r="N89">
-        <v>38.89321363727426</v>
+        <v>38.89321363727868</v>
       </c>
       <c r="O89">
-        <v>43.38597860565355</v>
+        <v>43.38597860565642</v>
       </c>
       <c r="P89">
-        <v>40.29467140838138</v>
+        <v>40.2946714083846</v>
       </c>
       <c r="Q89">
-        <v>44.30169638663965</v>
+        <v>44.301696386643016</v>
       </c>
       <c r="R89">
-        <v>45.01738621595489</v>
+        <v>45.01738621595905</v>
       </c>
       <c r="S89">
-        <v>40.66058245531655</v>
+        <v>40.660582455320764</v>
       </c>
       <c r="T89">
-        <v>38.19606740202122</v>
+        <v>38.19606740202471</v>
       </c>
       <c r="U89">
-        <v>33.65678881745759</v>
+        <v>33.65678881746135</v>
       </c>
       <c r="V89">
-        <v>33.7489722948282</v>
+        <v>33.74897229483213</v>
       </c>
       <c r="W89">
-        <v>37.152496921482</v>
+        <v>37.15249692148609</v>
       </c>
       <c r="X89">
-        <v>30.08144015991846</v>
+        <v>30.08144015992184</v>
       </c>
       <c r="Y89">
-        <v>30.702998460892402</v>
+        <v>30.702998460896197</v>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -7769,76 +7769,76 @@
         <v>114</v>
       </c>
       <c r="B91">
-        <v>28.81208912232225</v>
+        <v>28.81208912232978</v>
       </c>
       <c r="C91">
-        <v>31.219337909303913</v>
+        <v>31.219337909307797</v>
       </c>
       <c r="D91">
-        <v>29.254877455099248</v>
+        <v>29.25487745510327</v>
       </c>
       <c r="E91">
-        <v>28.397623604917246</v>
+        <v>28.397623604927503</v>
       </c>
       <c r="F91">
-        <v>29.575198386459707</v>
+        <v>29.5751983864684</v>
       </c>
       <c r="G91">
-        <v>30.07766005973693</v>
+        <v>30.07766005974554</v>
       </c>
       <c r="H91">
-        <v>31.065140900097795</v>
+        <v>31.065140900107508</v>
       </c>
       <c r="I91">
-        <v>31.94579148833322</v>
+        <v>31.945791488338728</v>
       </c>
       <c r="J91">
-        <v>28.035715458932447</v>
+        <v>28.035715458936465</v>
       </c>
       <c r="K91">
-        <v>34.29793078086358</v>
+        <v>34.297930780870956</v>
       </c>
       <c r="L91">
-        <v>33.176739501794884</v>
+        <v>33.17673950180324</v>
       </c>
       <c r="M91">
-        <v>35.264032175577356</v>
+        <v>35.26403217558254</v>
       </c>
       <c r="N91">
-        <v>34.888090869663884</v>
+        <v>34.88809086967376</v>
       </c>
       <c r="O91">
-        <v>42.51474801509077</v>
+        <v>42.51474801509903</v>
       </c>
       <c r="P91">
-        <v>37.58684992665622</v>
+        <v>37.58684992666531</v>
       </c>
       <c r="Q91">
-        <v>43.75467991225937</v>
+        <v>43.75467991226469</v>
       </c>
       <c r="R91">
-        <v>46.44985809376554</v>
+        <v>46.44985809377249</v>
       </c>
       <c r="S91">
-        <v>45.66514285920764</v>
+        <v>45.66514285921585</v>
       </c>
       <c r="T91">
-        <v>38.74262727092705</v>
+        <v>38.74262727093446</v>
       </c>
       <c r="U91">
-        <v>37.640835820872084</v>
+        <v>37.64083582087915</v>
       </c>
       <c r="V91">
-        <v>34.34182914414151</v>
+        <v>34.341829144148505</v>
       </c>
       <c r="W91">
-        <v>34.15545831138334</v>
+        <v>34.15545831139025</v>
       </c>
       <c r="X91">
-        <v>30.74914283735052</v>
+        <v>30.749142837354157</v>
       </c>
       <c r="Y91">
-        <v>33.76891823600597</v>
+        <v>33.768918236011814</v>
       </c>
     </row>
     <row r="92" spans="1:25">
@@ -8000,76 +8000,76 @@
         <v>117</v>
       </c>
       <c r="B94">
-        <v>30.330972208378792</v>
+        <v>30.33097220838681</v>
       </c>
       <c r="C94">
-        <v>27.884064450935764</v>
+        <v>27.884064450943697</v>
       </c>
       <c r="D94">
-        <v>27.103360562088245</v>
+        <v>27.103360562094167</v>
       </c>
       <c r="E94">
-        <v>30.649585264577578</v>
+        <v>30.649585264585767</v>
       </c>
       <c r="F94">
-        <v>26.162958064131335</v>
+        <v>26.162958064138365</v>
       </c>
       <c r="G94">
-        <v>31.326725017851672</v>
+        <v>31.326725017857825</v>
       </c>
       <c r="H94">
-        <v>28.24772868453468</v>
+        <v>28.24772868454238</v>
       </c>
       <c r="I94">
-        <v>27.666110815347295</v>
+        <v>27.666110815353022</v>
       </c>
       <c r="J94">
-        <v>30.057104263826325</v>
+        <v>30.057104263833025</v>
       </c>
       <c r="K94">
-        <v>30.973637930036602</v>
+        <v>30.973637930044788</v>
       </c>
       <c r="L94">
-        <v>32.25383546114663</v>
+        <v>32.25383546115336</v>
       </c>
       <c r="M94">
-        <v>37.19743352013106</v>
+        <v>37.197433520137565</v>
       </c>
       <c r="N94">
-        <v>41.55122892466859</v>
+        <v>41.55122892467625</v>
       </c>
       <c r="O94">
-        <v>41.13248568449455</v>
+        <v>41.13248568450217</v>
       </c>
       <c r="P94">
-        <v>39.56303132278511</v>
+        <v>39.563031322792085</v>
       </c>
       <c r="Q94">
-        <v>41.8075317485936</v>
+        <v>41.80753174860001</v>
       </c>
       <c r="R94">
-        <v>44.65818552666894</v>
+        <v>44.6581855266777</v>
       </c>
       <c r="S94">
-        <v>46.24535555491427</v>
+        <v>46.245355554921844</v>
       </c>
       <c r="T94">
-        <v>40.217657998283165</v>
+        <v>40.21765799829154</v>
       </c>
       <c r="U94">
-        <v>32.28863075098872</v>
+        <v>32.28863075099434</v>
       </c>
       <c r="V94">
-        <v>34.19712750772986</v>
+        <v>34.197127507737605</v>
       </c>
       <c r="W94">
-        <v>34.6066709735003</v>
+        <v>34.60667097350597</v>
       </c>
       <c r="X94">
-        <v>35.71114223361726</v>
+        <v>35.71114223362383</v>
       </c>
       <c r="Y94">
-        <v>29.642975924155696</v>
+        <v>29.642975924161874</v>
       </c>
     </row>
     <row r="95" spans="1:25">
@@ -8077,76 +8077,76 @@
         <v>118</v>
       </c>
       <c r="B95">
-        <v>28.151001507601105</v>
+        <v>28.151001507603723</v>
       </c>
       <c r="C95">
-        <v>30.024467959145582</v>
+        <v>30.024467959146932</v>
       </c>
       <c r="D95">
-        <v>26.017686927162806</v>
+        <v>26.017686927165414</v>
       </c>
       <c r="E95">
-        <v>26.026015534007225</v>
+        <v>26.026015534009275</v>
       </c>
       <c r="F95">
-        <v>30.916521625277188</v>
+        <v>30.91652162527862</v>
       </c>
       <c r="G95">
-        <v>29.456615310622453</v>
+        <v>29.45661531062433</v>
       </c>
       <c r="H95">
-        <v>31.00611978469678</v>
+        <v>31.006119784698967</v>
       </c>
       <c r="I95">
-        <v>31.028948208937642</v>
+        <v>31.028948208939255</v>
       </c>
       <c r="J95">
-        <v>30.753611884944416</v>
+        <v>30.753611884945713</v>
       </c>
       <c r="K95">
-        <v>29.337884137810388</v>
+        <v>29.33788413781258</v>
       </c>
       <c r="L95">
         <v>33.0354694224734</v>
       </c>
       <c r="M95">
-        <v>33.98152376371676</v>
+        <v>33.98152376371945</v>
       </c>
       <c r="N95">
-        <v>41.191362658735926</v>
+        <v>41.19136265873749</v>
       </c>
       <c r="O95">
-        <v>43.05385066427633</v>
+        <v>43.0538506642788</v>
       </c>
       <c r="P95">
-        <v>44.56390633539222</v>
+        <v>44.56390633539377</v>
       </c>
       <c r="Q95">
-        <v>40.84272902362092</v>
+        <v>40.84272902362318</v>
       </c>
       <c r="R95">
-        <v>41.54882734759284</v>
+        <v>41.54882734759485</v>
       </c>
       <c r="S95">
-        <v>43.321916524064264</v>
+        <v>43.32191652406618</v>
       </c>
       <c r="T95">
-        <v>35.39061110499272</v>
+        <v>35.390611104994605</v>
       </c>
       <c r="U95">
-        <v>36.69515019372169</v>
+        <v>36.69515019372375</v>
       </c>
       <c r="V95">
-        <v>38.264586731441675</v>
+        <v>38.26458673144407</v>
       </c>
       <c r="W95">
-        <v>34.458876646235225</v>
+        <v>34.458876646236604</v>
       </c>
       <c r="X95">
-        <v>33.46530601135672</v>
+        <v>33.465306011357825</v>
       </c>
       <c r="Y95">
-        <v>29.369548102642714</v>
+        <v>29.36954810264433</v>
       </c>
     </row>
     <row r="96" spans="1:25">
@@ -8243,49 +8243,49 @@
         <v>0.0</v>
       </c>
       <c r="F97">
-        <v>0.00013591297173476898</v>
+        <v>0.00013591298193205148</v>
       </c>
       <c r="G97">
-        <v>7.247395734243737</v>
+        <v>7.247395734251768</v>
       </c>
       <c r="H97">
-        <v>29.091044820250904</v>
+        <v>29.091044820255775</v>
       </c>
       <c r="I97">
-        <v>65.3292931238003</v>
+        <v>65.3292931238102</v>
       </c>
       <c r="J97">
-        <v>83.31682409593175</v>
+        <v>83.31682409594214</v>
       </c>
       <c r="K97">
-        <v>82.1784650647367</v>
+        <v>82.17846506474598</v>
       </c>
       <c r="L97">
-        <v>92.75228487841514</v>
+        <v>92.75228487842105</v>
       </c>
       <c r="M97">
-        <v>84.38909762109051</v>
+        <v>84.38909762109688</v>
       </c>
       <c r="N97">
-        <v>91.0707995152058</v>
+        <v>91.07079951521155</v>
       </c>
       <c r="O97">
-        <v>86.22036869734747</v>
+        <v>86.22036869735166</v>
       </c>
       <c r="P97">
-        <v>91.87367140582714</v>
+        <v>91.87367140583228</v>
       </c>
       <c r="Q97">
-        <v>73.11605755197581</v>
+        <v>73.11605755198252</v>
       </c>
       <c r="R97">
-        <v>45.000386924719194</v>
+        <v>45.00038692472299</v>
       </c>
       <c r="S97">
-        <v>15.827658032509337</v>
+        <v>15.82765803251823</v>
       </c>
       <c r="T97">
-        <v>0.5720213378769985</v>
+        <v>0.5720213378808694</v>
       </c>
       <c r="U97">
         <v>0.0</v>
@@ -8320,49 +8320,49 @@
         <v>0.0</v>
       </c>
       <c r="F98">
-        <v>0.00015309250270745462</v>
+        <v>0.00015309250375139527</v>
       </c>
       <c r="G98">
-        <v>7.420457336936026</v>
+        <v>7.420457336937034</v>
       </c>
       <c r="H98">
-        <v>30.432449394267724</v>
+        <v>30.432449394269497</v>
       </c>
       <c r="I98">
-        <v>70.55238568950651</v>
+        <v>70.55238568950881</v>
       </c>
       <c r="J98">
-        <v>79.36233390950783</v>
+        <v>79.3623339095102</v>
       </c>
       <c r="K98">
-        <v>91.75702619115056</v>
+        <v>91.75702619115327</v>
       </c>
       <c r="L98">
-        <v>89.09132904759274</v>
+        <v>89.09132904759463</v>
       </c>
       <c r="M98">
-        <v>97.12508617719512</v>
+        <v>97.12508617719686</v>
       </c>
       <c r="N98">
-        <v>86.39749266198402</v>
+        <v>86.39749266198669</v>
       </c>
       <c r="O98">
-        <v>96.06627143755975</v>
+        <v>96.06627143756123</v>
       </c>
       <c r="P98">
-        <v>84.02183798301223</v>
+        <v>84.02183798301485</v>
       </c>
       <c r="Q98">
-        <v>77.8860503034969</v>
+        <v>77.88605030349936</v>
       </c>
       <c r="R98">
-        <v>45.510489196501275</v>
+        <v>45.51048919650384</v>
       </c>
       <c r="S98">
-        <v>15.928906326987711</v>
+        <v>15.928906326989818</v>
       </c>
       <c r="T98">
-        <v>0.6368226928967602</v>
+        <v>0.6368226928989316</v>
       </c>
       <c r="U98">
         <v>0.0</v>
@@ -8397,49 +8397,49 @@
         <v>0.0</v>
       </c>
       <c r="F99">
-        <v>0.00014344472588554406</v>
+        <v>0.00014344473311211914</v>
       </c>
       <c r="G99">
         <v>6.842183729746466</v>
       </c>
       <c r="H99">
-        <v>33.38023906544236</v>
+        <v>33.38023906544913</v>
       </c>
       <c r="I99">
-        <v>65.53928771175514</v>
+        <v>65.53928771176288</v>
       </c>
       <c r="J99">
-        <v>89.19354987112794</v>
+        <v>89.19354987113547</v>
       </c>
       <c r="K99">
-        <v>88.87372375591374</v>
+        <v>88.87372375592167</v>
       </c>
       <c r="L99">
-        <v>99.10647589817962</v>
+        <v>99.10647589818836</v>
       </c>
       <c r="M99">
-        <v>90.28502729656296</v>
+        <v>90.28502729656975</v>
       </c>
       <c r="N99">
-        <v>87.52185418912843</v>
+        <v>87.52185418913723</v>
       </c>
       <c r="O99">
-        <v>82.48759863148419</v>
+        <v>82.48759863149098</v>
       </c>
       <c r="P99">
-        <v>79.62527354970392</v>
+        <v>79.62527354971098</v>
       </c>
       <c r="Q99">
-        <v>71.66828584114148</v>
+        <v>71.66828584114774</v>
       </c>
       <c r="R99">
-        <v>44.42555664492722</v>
+        <v>44.42555664493557</v>
       </c>
       <c r="S99">
-        <v>15.72573750313975</v>
+        <v>15.725737503147684</v>
       </c>
       <c r="T99">
-        <v>0.6739123551764924</v>
+        <v>0.6739123551851662</v>
       </c>
       <c r="U99">
         <v>0.0</v>
@@ -8628,49 +8628,49 @@
         <v>0.0</v>
       </c>
       <c r="F102">
-        <v>0.00014896841370368307</v>
+        <v>0.00014896842185407877</v>
       </c>
       <c r="G102">
-        <v>6.895001650372072</v>
+        <v>6.895001650380436</v>
       </c>
       <c r="H102">
-        <v>32.884916042353936</v>
+        <v>32.88491604236333</v>
       </c>
       <c r="I102">
-        <v>63.17715694756154</v>
+        <v>63.17715694756771</v>
       </c>
       <c r="J102">
-        <v>88.5396549465499</v>
+        <v>88.53965494655858</v>
       </c>
       <c r="K102">
-        <v>84.33926131333794</v>
+        <v>84.33926131334738</v>
       </c>
       <c r="L102">
-        <v>83.48149384712063</v>
+        <v>83.48149384712451</v>
       </c>
       <c r="M102">
-        <v>87.0276243634824</v>
+        <v>87.02762436348712</v>
       </c>
       <c r="N102">
-        <v>94.01652693553831</v>
+        <v>94.01652693554206</v>
       </c>
       <c r="O102">
-        <v>99.2430585477889</v>
+        <v>99.24305854779959</v>
       </c>
       <c r="P102">
-        <v>88.97015986202743</v>
+        <v>88.97015986203769</v>
       </c>
       <c r="Q102">
-        <v>80.47782759262665</v>
+        <v>80.47782759263646</v>
       </c>
       <c r="R102">
-        <v>41.320353509102596</v>
+        <v>41.32035350910883</v>
       </c>
       <c r="S102">
-        <v>14.749118147186616</v>
+        <v>14.749118147192348</v>
       </c>
       <c r="T102">
-        <v>0.654897352216902</v>
+        <v>0.6548973522221786</v>
       </c>
       <c r="U102">
         <v>0.0</v>
@@ -8936,49 +8936,49 @@
         <v>0.0</v>
       </c>
       <c r="F106">
-        <v>0.00016287299895143765</v>
+        <v>0.00016287300240946934</v>
       </c>
       <c r="G106">
-        <v>6.853286338370253</v>
+        <v>6.853286338373437</v>
       </c>
       <c r="H106">
-        <v>33.78410848477304</v>
+        <v>33.78410848477688</v>
       </c>
       <c r="I106">
-        <v>64.27304527947433</v>
+        <v>64.27304527947854</v>
       </c>
       <c r="J106">
-        <v>84.29265146888036</v>
+        <v>84.29265146888429</v>
       </c>
       <c r="K106">
-        <v>96.65998644024158</v>
+        <v>96.65998644024512</v>
       </c>
       <c r="L106">
-        <v>91.81077695866705</v>
+        <v>91.81077695867134</v>
       </c>
       <c r="M106">
-        <v>99.74999385431033</v>
+        <v>99.74999385431329</v>
       </c>
       <c r="N106">
-        <v>91.39916740169015</v>
+        <v>91.39916740169429</v>
       </c>
       <c r="O106">
-        <v>82.57425527355504</v>
+        <v>82.57425527355917</v>
       </c>
       <c r="P106">
-        <v>87.32155552167002</v>
+        <v>87.32155552167387</v>
       </c>
       <c r="Q106">
-        <v>67.7151852453197</v>
+        <v>67.71518524532257</v>
       </c>
       <c r="R106">
-        <v>45.49411039388073</v>
+        <v>45.4941103938836</v>
       </c>
       <c r="S106">
-        <v>16.05760992403805</v>
+        <v>16.05760992404248</v>
       </c>
       <c r="T106">
-        <v>0.6402469704361005</v>
+        <v>0.640246970438966</v>
       </c>
       <c r="U106">
         <v>0.0</v>
@@ -9013,49 +9013,49 @@
         <v>0.0</v>
       </c>
       <c r="F107">
-        <v>0.00013522571715373822</v>
+        <v>0.00013522572044166736</v>
       </c>
       <c r="G107">
-        <v>6.7203947201276595</v>
+        <v>6.720394720130571</v>
       </c>
       <c r="H107">
-        <v>31.48248415254392</v>
+        <v>31.48248415254784</v>
       </c>
       <c r="I107">
-        <v>63.558232796343376</v>
+        <v>63.55823279634751</v>
       </c>
       <c r="J107">
-        <v>78.76959690096568</v>
+        <v>78.76959690096919</v>
       </c>
       <c r="K107">
-        <v>98.58570665553388</v>
+        <v>98.58570665553816</v>
       </c>
       <c r="L107">
-        <v>94.22378947749613</v>
+        <v>94.22378947749894</v>
       </c>
       <c r="M107">
-        <v>101.50418655623866</v>
+        <v>101.50418655624162</v>
       </c>
       <c r="N107">
-        <v>89.96890001859366</v>
+        <v>89.9689000185972</v>
       </c>
       <c r="O107">
-        <v>82.63225270573142</v>
+        <v>82.63225270573457</v>
       </c>
       <c r="P107">
-        <v>92.93045946829952</v>
+        <v>92.93045946830352</v>
       </c>
       <c r="Q107">
-        <v>73.59054702597545</v>
+        <v>73.5905470259786</v>
       </c>
       <c r="R107">
-        <v>45.33807779258528</v>
+        <v>45.33807779258859</v>
       </c>
       <c r="S107">
-        <v>14.583817047668903</v>
+        <v>14.58381704767271</v>
       </c>
       <c r="T107">
-        <v>0.6714093460862516</v>
+        <v>0.6714093460905133</v>
       </c>
       <c r="U107">
         <v>0.0</v>
@@ -9090,49 +9090,49 @@
         <v>0.0</v>
       </c>
       <c r="F108">
-        <v>0.00014201279841168335</v>
+        <v>0.000142012802825775</v>
       </c>
       <c r="G108">
-        <v>6.591719207494889</v>
+        <v>6.591719207499409</v>
       </c>
       <c r="H108">
-        <v>30.536355729611124</v>
+        <v>30.536355729615025</v>
       </c>
       <c r="I108">
-        <v>64.2014005222545</v>
+        <v>64.20140052225725</v>
       </c>
       <c r="J108">
-        <v>78.74260320180473</v>
+        <v>78.74260320180838</v>
       </c>
       <c r="K108">
-        <v>82.75168442125207</v>
+        <v>82.75168442125505</v>
       </c>
       <c r="L108">
-        <v>91.45733006005258</v>
+        <v>91.45733006005685</v>
       </c>
       <c r="M108">
-        <v>89.46853026740798</v>
+        <v>89.46853026741155</v>
       </c>
       <c r="N108">
-        <v>93.43089969451007</v>
+        <v>93.43089969451285</v>
       </c>
       <c r="O108">
-        <v>85.4589914604178</v>
+        <v>85.45899146042211</v>
       </c>
       <c r="P108">
-        <v>86.29327229724944</v>
+        <v>86.29327229725277</v>
       </c>
       <c r="Q108">
-        <v>67.7844600667294</v>
+        <v>67.78446006673221</v>
       </c>
       <c r="R108">
-        <v>45.39440814921572</v>
+        <v>45.39440814921909</v>
       </c>
       <c r="S108">
-        <v>14.665137151841227</v>
+        <v>14.665137151845556</v>
       </c>
       <c r="T108">
-        <v>0.5716982463702562</v>
+        <v>0.5716982463745808</v>
       </c>
       <c r="U108">
         <v>0.0</v>
@@ -9321,49 +9321,49 @@
         <v>0.0</v>
       </c>
       <c r="F111">
-        <v>0.00013831908030353322</v>
+        <v>0.00013831909745931625</v>
       </c>
       <c r="G111">
-        <v>6.513727311953594</v>
+        <v>6.513727311968978</v>
       </c>
       <c r="H111">
-        <v>31.25460239948253</v>
+        <v>31.254602399494615</v>
       </c>
       <c r="I111">
-        <v>61.812517049713165</v>
+        <v>61.81251704972965</v>
       </c>
       <c r="J111">
-        <v>81.54813626476304</v>
+        <v>81.54813626477699</v>
       </c>
       <c r="K111">
-        <v>89.86487035561038</v>
+        <v>89.86487035562459</v>
       </c>
       <c r="L111">
-        <v>98.51062859298406</v>
+        <v>98.51062859300146</v>
       </c>
       <c r="M111">
-        <v>90.20478193368561</v>
+        <v>90.20478193370218</v>
       </c>
       <c r="N111">
-        <v>95.33947591153118</v>
+        <v>95.3394759115472</v>
       </c>
       <c r="O111">
-        <v>83.93047178447124</v>
+        <v>83.93047178448614</v>
       </c>
       <c r="P111">
-        <v>87.03157260309548</v>
+        <v>87.03157260311127</v>
       </c>
       <c r="Q111">
-        <v>76.10039253897149</v>
+        <v>76.10039253898867</v>
       </c>
       <c r="R111">
-        <v>38.62790771141918</v>
+        <v>38.62790771143045</v>
       </c>
       <c r="S111">
-        <v>15.898948336357988</v>
+        <v>15.898948336369358</v>
       </c>
       <c r="T111">
-        <v>0.6511876311618444</v>
+        <v>0.6511876311778906</v>
       </c>
       <c r="U111">
         <v>0.0</v>
@@ -9398,49 +9398,49 @@
         <v>0.0</v>
       </c>
       <c r="F112">
-        <v>0.0001603224225242415</v>
+        <v>0.00016032243729569018</v>
       </c>
       <c r="G112">
-        <v>7.663837267210959</v>
+        <v>7.663837267231429</v>
       </c>
       <c r="H112">
-        <v>35.32696203604507</v>
+        <v>35.32696203606611</v>
       </c>
       <c r="I112">
-        <v>68.05970448723511</v>
+        <v>68.05970448725566</v>
       </c>
       <c r="J112">
-        <v>87.57574801773258</v>
+        <v>87.57574801774172</v>
       </c>
       <c r="K112">
-        <v>84.65054233962893</v>
+        <v>84.65054233964474</v>
       </c>
       <c r="L112">
-        <v>92.1112508630292</v>
+        <v>92.11125086304673</v>
       </c>
       <c r="M112">
-        <v>98.46232965593427</v>
+        <v>98.4623296559439</v>
       </c>
       <c r="N112">
-        <v>84.6938610287376</v>
+        <v>84.69386102874705</v>
       </c>
       <c r="O112">
-        <v>100.04569474655688</v>
+        <v>100.04569474657183</v>
       </c>
       <c r="P112">
-        <v>92.63747266887081</v>
+        <v>92.63747266888095</v>
       </c>
       <c r="Q112">
-        <v>69.82269144945178</v>
+        <v>69.8226914494735</v>
       </c>
       <c r="R112">
-        <v>38.16112717999148</v>
+        <v>38.16112718000659</v>
       </c>
       <c r="S112">
-        <v>13.613910745745414</v>
+        <v>13.613910745756584</v>
       </c>
       <c r="T112">
-        <v>0.5927554238906844</v>
+        <v>0.5927554239024175</v>
       </c>
       <c r="U112">
         <v>0.0</v>
@@ -9475,49 +9475,49 @@
         <v>0.0</v>
       </c>
       <c r="F113">
-        <v>0.00015154091768237603</v>
+        <v>0.0001515409239800647</v>
       </c>
       <c r="G113">
-        <v>7.533203111290989</v>
+        <v>7.533203111299372</v>
       </c>
       <c r="H113">
-        <v>32.80202630154451</v>
+        <v>32.80202630154963</v>
       </c>
       <c r="I113">
-        <v>65.322814724569</v>
+        <v>65.32281472457544</v>
       </c>
       <c r="J113">
-        <v>92.55562780618767</v>
+        <v>92.5556278061922</v>
       </c>
       <c r="K113">
-        <v>84.09267440302975</v>
+        <v>84.09267440303665</v>
       </c>
       <c r="L113">
-        <v>88.24441449679144</v>
+        <v>88.2444144967958</v>
       </c>
       <c r="M113">
-        <v>98.24096971609052</v>
+        <v>98.24096971609833</v>
       </c>
       <c r="N113">
-        <v>91.8597927673942</v>
+        <v>91.85979276739818</v>
       </c>
       <c r="O113">
-        <v>91.55296906733938</v>
+        <v>91.5529690673502</v>
       </c>
       <c r="P113">
-        <v>93.05921319240008</v>
+        <v>93.05921319240588</v>
       </c>
       <c r="Q113">
-        <v>67.93167730621549</v>
+        <v>67.93167730622372</v>
       </c>
       <c r="R113">
-        <v>41.31513620290449</v>
+        <v>41.31513620290934</v>
       </c>
       <c r="S113">
-        <v>15.894944582950082</v>
+        <v>15.894944582956668</v>
       </c>
       <c r="T113">
-        <v>0.6162577145633789</v>
+        <v>0.6162577145732939</v>
       </c>
       <c r="U113">
         <v>0.0</v>
@@ -9552,49 +9552,49 @@
         <v>0.0</v>
       </c>
       <c r="F114">
-        <v>0.00013355754039663073</v>
+        <v>0.0001335575434495695</v>
       </c>
       <c r="G114">
-        <v>7.801732723901143</v>
+        <v>7.801732723903115</v>
       </c>
       <c r="H114">
-        <v>33.927875589895734</v>
+        <v>33.927875589903124</v>
       </c>
       <c r="I114">
-        <v>63.01235896411686</v>
+        <v>63.01235896412254</v>
       </c>
       <c r="J114">
-        <v>84.11525781115577</v>
+        <v>84.11525781116143</v>
       </c>
       <c r="K114">
-        <v>90.45658643980723</v>
+        <v>90.45658643981369</v>
       </c>
       <c r="L114">
-        <v>96.16894894233666</v>
+        <v>96.16894894234429</v>
       </c>
       <c r="M114">
-        <v>97.59012447261867</v>
+        <v>97.59012447262648</v>
       </c>
       <c r="N114">
-        <v>84.03726755444745</v>
+        <v>84.03726755445314</v>
       </c>
       <c r="O114">
-        <v>95.39932744419593</v>
+        <v>95.39932744420366</v>
       </c>
       <c r="P114">
-        <v>86.12068747155493</v>
+        <v>86.12068747156081</v>
       </c>
       <c r="Q114">
-        <v>77.29516129971807</v>
+        <v>77.29516129972399</v>
       </c>
       <c r="R114">
-        <v>44.12276607825664</v>
+        <v>44.12276607826425</v>
       </c>
       <c r="S114">
-        <v>14.112982797577104</v>
+        <v>14.112982797581935</v>
       </c>
       <c r="T114">
-        <v>0.6806521553197633</v>
+        <v>0.6806521553226048</v>
       </c>
       <c r="U114">
         <v>0.0</v>
@@ -9629,49 +9629,49 @@
         <v>0.0</v>
       </c>
       <c r="F115">
-        <v>0.00013749697877159844</v>
+        <v>0.00013749698155152146</v>
       </c>
       <c r="G115">
-        <v>6.488063529329954</v>
+        <v>6.4880635293338855</v>
       </c>
       <c r="H115">
-        <v>32.27347292832364</v>
+        <v>32.273472928327465</v>
       </c>
       <c r="I115">
-        <v>67.39375178696288</v>
+        <v>67.39375178696719</v>
       </c>
       <c r="J115">
-        <v>76.34556128383294</v>
+        <v>76.34556128383701</v>
       </c>
       <c r="K115">
-        <v>97.18434191999444</v>
+        <v>97.18434191999768</v>
       </c>
       <c r="L115">
-        <v>99.10220758657859</v>
+        <v>99.10220758658215</v>
       </c>
       <c r="M115">
-        <v>99.58172016553846</v>
+        <v>99.58172016554272</v>
       </c>
       <c r="N115">
-        <v>88.5446518111954</v>
+        <v>88.54465181119849</v>
       </c>
       <c r="O115">
-        <v>98.4475287884784</v>
+        <v>98.44752878848158</v>
       </c>
       <c r="P115">
-        <v>89.64148288088583</v>
+        <v>89.64148288089018</v>
       </c>
       <c r="Q115">
-        <v>68.34050447967286</v>
+        <v>68.34050447967638</v>
       </c>
       <c r="R115">
-        <v>44.818332569911675</v>
+        <v>44.81833256991558</v>
       </c>
       <c r="S115">
-        <v>14.768572789261057</v>
+        <v>14.768572789263999</v>
       </c>
       <c r="T115">
-        <v>0.6295482756944135</v>
+        <v>0.6295482756977435</v>
       </c>
       <c r="U115">
         <v>0.0</v>
@@ -9771,76 +9771,76 @@
         <v>140</v>
       </c>
       <c r="B117">
-        <v>4278.995856228947</v>
+        <v>4278.995856228776</v>
       </c>
       <c r="C117">
-        <v>4021.6622570826585</v>
+        <v>4021.6622570825034</v>
       </c>
       <c r="D117">
-        <v>3450.9445925272335</v>
+        <v>3450.9445925271057</v>
       </c>
       <c r="E117">
-        <v>2960.323530480925</v>
+        <v>2960.3235304807718</v>
       </c>
       <c r="F117">
-        <v>2789.841667876086</v>
+        <v>2789.8416678758313</v>
       </c>
       <c r="G117">
-        <v>3409.3684372321345</v>
+        <v>3409.3684372319017</v>
       </c>
       <c r="H117">
-        <v>3721.84738721801</v>
+        <v>3721.8473872177724</v>
       </c>
       <c r="I117">
-        <v>3652.663276651645</v>
+        <v>3652.6632766510647</v>
       </c>
       <c r="J117">
-        <v>3565.3821687456543</v>
+        <v>3565.382168745421</v>
       </c>
       <c r="K117">
-        <v>3870.4428686878955</v>
+        <v>3870.4428686876668</v>
       </c>
       <c r="L117">
-        <v>3814.716579360985</v>
+        <v>3814.716579360754</v>
       </c>
       <c r="M117">
-        <v>3305.9137966875182</v>
+        <v>3305.9137966872822</v>
       </c>
       <c r="N117">
-        <v>2958.6152861483283</v>
+        <v>2958.6152861481132</v>
       </c>
       <c r="O117">
-        <v>2562.6654216611078</v>
+        <v>2562.665421660881</v>
       </c>
       <c r="P117">
-        <v>3506.6628072094823</v>
+        <v>3506.6628072092753</v>
       </c>
       <c r="Q117">
-        <v>3932.8818612256837</v>
+        <v>3932.881861225411</v>
       </c>
       <c r="R117">
-        <v>4018.235397879915</v>
+        <v>4018.235397879708</v>
       </c>
       <c r="S117">
-        <v>5013.584219818227</v>
+        <v>5013.584219818003</v>
       </c>
       <c r="T117">
-        <v>5886.066539049044</v>
+        <v>5886.066539048832</v>
       </c>
       <c r="U117">
-        <v>6341.379573707797</v>
+        <v>6341.379573707677</v>
       </c>
       <c r="V117">
-        <v>6446.214984218281</v>
+        <v>6446.214979122333</v>
       </c>
       <c r="W117">
-        <v>5673.4748603217395</v>
+        <v>5673.474860321618</v>
       </c>
       <c r="X117">
-        <v>5562.4846626945</v>
+        <v>5562.4846626943945</v>
       </c>
       <c r="Y117">
-        <v>5201.315005478067</v>
+        <v>5201.315005477968</v>
       </c>
     </row>
     <row r="118" spans="1:25">
@@ -9848,76 +9848,76 @@
         <v>141</v>
       </c>
       <c r="B118">
-        <v>1235.6041437710514</v>
+        <v>1235.604143771206</v>
       </c>
       <c r="C118">
-        <v>1177.817742917345</v>
+        <v>1177.8177429174975</v>
       </c>
       <c r="D118">
-        <v>1118.2954074727681</v>
+        <v>1118.2954074815145</v>
       </c>
       <c r="E118">
-        <v>1136.2364695190736</v>
+        <v>1136.2364695192252</v>
       </c>
       <c r="F118">
-        <v>1149.1583321239286</v>
+        <v>1149.1583321241542</v>
       </c>
       <c r="G118">
-        <v>1317.4315627678673</v>
+        <v>1317.4315627680978</v>
       </c>
       <c r="H118">
-        <v>1792.7526127819926</v>
+        <v>1792.7526127822302</v>
       </c>
       <c r="I118">
-        <v>2492.176723348359</v>
+        <v>2492.1767233485953</v>
       </c>
       <c r="J118">
-        <v>2894.5778312543457</v>
+        <v>2894.577831254568</v>
       </c>
       <c r="K118">
-        <v>3062.19713131208</v>
+        <v>3062.1971313123277</v>
       </c>
       <c r="L118">
-        <v>3196.7034206390163</v>
+        <v>3196.703420639246</v>
       </c>
       <c r="M118">
-        <v>3311.606203312487</v>
+        <v>3311.6062033127146</v>
       </c>
       <c r="N118">
-        <v>3343.784713851657</v>
+        <v>3343.7847138518796</v>
       </c>
       <c r="O118">
-        <v>3424.61457833889</v>
+        <v>3424.614578339121</v>
       </c>
       <c r="P118">
-        <v>3425.977192790516</v>
+        <v>3425.977192790728</v>
       </c>
       <c r="Q118">
-        <v>3157.3181387743143</v>
+        <v>3157.3181387745353</v>
       </c>
       <c r="R118">
-        <v>2678.064602120067</v>
+        <v>2678.0646021202856</v>
       </c>
       <c r="S118">
-        <v>1997.8357801817742</v>
+        <v>1997.8357801819932</v>
       </c>
       <c r="T118">
-        <v>1519.253460950959</v>
+        <v>1519.2534609511758</v>
       </c>
       <c r="U118">
-        <v>1379.060426292204</v>
+        <v>1379.060426292313</v>
       </c>
       <c r="V118">
-        <v>1431.7850157817231</v>
+        <v>1431.7850157818461</v>
       </c>
       <c r="W118">
-        <v>1416.7251396782624</v>
+        <v>1416.7251396783793</v>
       </c>
       <c r="X118">
-        <v>1291.3753373055001</v>
+        <v>1291.3753373056127</v>
       </c>
       <c r="Y118">
-        <v>1258.6449945219163</v>
+        <v>1258.644994522032</v>
       </c>
     </row>
     <row r="119" spans="1:25">
@@ -9925,7 +9925,7 @@
         <v>142</v>
       </c>
       <c r="B119">
-        <v>2.2639005831860937e6</v>
+        <v>2.2633347188554704e6</v>
       </c>
     </row>
     <row r="120" spans="1:25">
@@ -9933,7 +9933,7 @@
         <v>143</v>
       </c>
       <c r="B120">
-        <v>226266.0</v>
+        <v>226716.0</v>
       </c>
     </row>
     <row r="121" spans="1:25">
@@ -9941,7 +9941,7 @@
         <v>144</v>
       </c>
       <c r="B121">
-        <v>736000.7999999998</v>
+        <v>736270.7999999998</v>
       </c>
     </row>
     <row r="122" spans="1:25">
@@ -9949,7 +9949,7 @@
         <v>145</v>
       </c>
       <c r="B122">
-        <v>3.2261673831860935e6</v>
+        <v>3.22632151885547e6</v>
       </c>
     </row>
   </sheetData>
@@ -10548,7 +10548,7 @@
         <v>707.0</v>
       </c>
       <c r="O8">
-        <v>482.042813566969</v>
+        <v>482.04281356687466</v>
       </c>
       <c r="P8">
         <v>707.0</v>
@@ -10598,7 +10598,7 @@
         <v>119.0</v>
       </c>
       <c r="F9">
-        <v>66.14833454274181</v>
+        <v>41.61033333333333</v>
       </c>
       <c r="G9">
         <v>119.0</v>
@@ -10672,7 +10672,7 @@
         <v>304.0</v>
       </c>
       <c r="E10">
-        <v>248.35019714759952</v>
+        <v>217.3501971474529</v>
       </c>
       <c r="F10">
         <v>130.72000000000003</v>
@@ -10702,10 +10702,10 @@
         <v>130.72000000000003</v>
       </c>
       <c r="O10">
-        <v>69.71919944466917</v>
+        <v>69.71919944476386</v>
       </c>
       <c r="P10">
-        <v>242.99919944466916</v>
+        <v>242.99919944476383</v>
       </c>
       <c r="Q10">
         <v>304.0</v>
@@ -10749,13 +10749,13 @@
         <v>100.0</v>
       </c>
       <c r="E11">
-        <v>38.33333333333333</v>
+        <v>38.333333333333336</v>
       </c>
       <c r="F11">
-        <v>38.33333333333333</v>
+        <v>31.87133454250901</v>
       </c>
       <c r="G11">
-        <v>100.0</v>
+        <v>93.53800120917569</v>
       </c>
       <c r="H11">
         <v>100.0</v>
@@ -10773,10 +10773,10 @@
         <v>100.0</v>
       </c>
       <c r="M11">
-        <v>97.72195281500923</v>
+        <v>97.72195281478626</v>
       </c>
       <c r="N11">
-        <v>36.05528614834256</v>
+        <v>36.05528614811959</v>
       </c>
       <c r="O11">
         <v>20.0</v>
@@ -10823,7 +10823,7 @@
         <v>148.0</v>
       </c>
       <c r="D12">
-        <v>115.53866666666667</v>
+        <v>115.53866666666666</v>
       </c>
       <c r="E12">
         <v>29.6</v>
@@ -10832,7 +10832,7 @@
         <v>29.6</v>
       </c>
       <c r="G12">
-        <v>115.53866666666667</v>
+        <v>115.53866666666666</v>
       </c>
       <c r="H12">
         <v>148.0</v>
@@ -10844,13 +10844,13 @@
         <v>148.0</v>
       </c>
       <c r="K12">
-        <v>71.97948994594759</v>
+        <v>148.0</v>
       </c>
       <c r="L12">
         <v>148.0</v>
       </c>
       <c r="M12">
-        <v>71.24984217738941</v>
+        <v>71.24984217741445</v>
       </c>
       <c r="N12">
         <v>29.6</v>
@@ -10859,7 +10859,7 @@
         <v>29.6</v>
       </c>
       <c r="P12">
-        <v>115.53866666666667</v>
+        <v>115.53866666666664</v>
       </c>
       <c r="Q12">
         <v>148.0</v>
@@ -10894,13 +10894,13 @@
         <v>36</v>
       </c>
       <c r="B13">
-        <v>457.9039663336152</v>
+        <v>458.2192668878571</v>
       </c>
       <c r="C13">
-        <v>440.75691495219064</v>
+        <v>440.9888383595404</v>
       </c>
       <c r="D13">
-        <v>346.69925919390056</v>
+        <v>342.0325925270935</v>
       </c>
       <c r="E13">
         <v>110.0</v>
@@ -10909,22 +10909,22 @@
         <v>110.0</v>
       </c>
       <c r="G13">
-        <v>331.4564372321329</v>
+        <v>331.2517693560602</v>
       </c>
       <c r="H13">
-        <v>435.9493065177107</v>
+        <v>436.0638055189753</v>
       </c>
       <c r="I13">
-        <v>376.26770689266317</v>
+        <v>362.763801151503</v>
       </c>
       <c r="J13">
-        <v>292.17478031577537</v>
+        <v>247.98087083963006</v>
       </c>
       <c r="K13">
-        <v>447.72594023397755</v>
+        <v>361.3475944682233</v>
       </c>
       <c r="L13">
-        <v>339.0029322016634</v>
+        <v>339.0029322014554</v>
       </c>
       <c r="M13">
         <v>110.0</v>
@@ -10936,22 +10936,22 @@
         <v>110.0</v>
       </c>
       <c r="P13">
-        <v>252.99291015312252</v>
+        <v>252.9929101528384</v>
       </c>
       <c r="Q13">
-        <v>396.97546173849184</v>
+        <v>396.9754617384408</v>
       </c>
       <c r="R13">
-        <v>376.15127156324576</v>
+        <v>376.1512715631966</v>
       </c>
       <c r="S13">
-        <v>475.11384793684675</v>
+        <v>475.11384793679173</v>
       </c>
       <c r="T13">
-        <v>545.5892092710325</v>
+        <v>545.5892092709911</v>
       </c>
       <c r="U13">
-        <v>550.0</v>
+        <v>547.7051117958595</v>
       </c>
       <c r="V13">
         <v>550.0</v>
@@ -10963,7 +10963,7 @@
         <v>550.0</v>
       </c>
       <c r="Y13">
-        <v>543.7418234889316</v>
+        <v>543.7418234888856</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -10986,13 +10986,13 @@
         <v>20.0</v>
       </c>
       <c r="G14">
-        <v>44.333333333333336</v>
+        <v>20.0</v>
       </c>
       <c r="H14">
-        <v>100.0</v>
+        <v>75.66666666666667</v>
       </c>
       <c r="I14">
-        <v>44.333333333333336</v>
+        <v>20.0</v>
       </c>
       <c r="J14">
         <v>20.0</v>
@@ -11016,10 +11016,10 @@
         <v>20.0</v>
       </c>
       <c r="Q14">
-        <v>48.406342251759284</v>
+        <v>48.40634225164377</v>
       </c>
       <c r="R14">
-        <v>93.42229377395898</v>
+        <v>93.42229377385571</v>
       </c>
       <c r="S14">
         <v>100.0</v>
@@ -11048,31 +11048,31 @@
         <v>38</v>
       </c>
       <c r="B15">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="C15">
-        <v>100.0</v>
+        <v>0.0</v>
       </c>
       <c r="D15">
-        <v>46.33333333333333</v>
+        <v>0.0</v>
       </c>
       <c r="E15">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="F15">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="G15">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="H15">
-        <v>73.66666666666667</v>
+        <v>0.0</v>
       </c>
       <c r="I15">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J15">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="K15">
         <v>20.0</v>
@@ -11096,7 +11096,7 @@
         <v>20.0</v>
       </c>
       <c r="R15">
-        <v>46.33333333333333</v>
+        <v>46.333333333333336</v>
       </c>
       <c r="S15">
         <v>100.0</v>
@@ -11125,31 +11125,31 @@
         <v>39</v>
       </c>
       <c r="B16">
-        <v>0.0</v>
+        <v>237.15</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
+        <v>169.5749999999999</v>
       </c>
       <c r="D16">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="E16">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="F16">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="G16">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="H16">
-        <v>0.0</v>
+        <v>105.48748187271353</v>
       </c>
       <c r="I16">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="J16">
-        <v>0.0</v>
+        <v>51.0</v>
       </c>
       <c r="K16">
         <v>51.0</v>
@@ -11253,7 +11253,7 @@
         <v>0.0</v>
       </c>
       <c r="S17">
-        <v>230.53333333333336</v>
+        <v>230.53333333333333</v>
       </c>
       <c r="T17">
         <v>260.0</v>
@@ -11279,61 +11279,61 @@
         <v>41</v>
       </c>
       <c r="B18">
-        <v>624.007330518995</v>
+        <v>528.0543267010734</v>
       </c>
       <c r="C18">
-        <v>475.9053421304669</v>
+        <v>406.09841872296283</v>
       </c>
       <c r="D18">
         <v>161.04000000000002</v>
       </c>
       <c r="E18">
-        <v>161.04000000000002</v>
+        <v>161.03999999999996</v>
       </c>
       <c r="F18">
-        <v>161.04000000000002</v>
+        <v>161.03999999999996</v>
       </c>
       <c r="G18">
-        <v>161.04000000000002</v>
+        <v>161.03999999999996</v>
       </c>
       <c r="H18">
-        <v>207.23141403362789</v>
+        <v>219.62943315942977</v>
       </c>
       <c r="I18">
-        <v>287.0622364256461</v>
+        <v>301.3250349286476</v>
       </c>
       <c r="J18">
-        <v>236.88795472542043</v>
+        <v>278.7608166887761</v>
       </c>
       <c r="K18">
-        <v>298.88467147018594</v>
+        <v>304.2147463967428</v>
       </c>
       <c r="L18">
-        <v>292.4188052399012</v>
+        <v>292.41880523990494</v>
       </c>
       <c r="M18">
-        <v>196.98049310912003</v>
+        <v>196.9804931089884</v>
       </c>
       <c r="N18">
-        <v>161.04000000000002</v>
+        <v>161.03999999999996</v>
       </c>
       <c r="O18">
-        <v>161.04000000000002</v>
+        <v>161.03999999999996</v>
       </c>
       <c r="P18">
-        <v>276.1603708753702</v>
+        <v>276.16037087536995</v>
       </c>
       <c r="Q18">
-        <v>300.0390286131003</v>
+        <v>300.0390286130948</v>
       </c>
       <c r="R18">
-        <v>313.7034992093785</v>
+        <v>313.7034992093294</v>
       </c>
       <c r="S18">
-        <v>492.23449802421885</v>
+        <v>492.23449802412557</v>
       </c>
       <c r="T18">
-        <v>744.6223588612413</v>
+        <v>744.6223588611585</v>
       </c>
       <c r="U18">
         <v>805.2</v>
@@ -11342,13 +11342,13 @@
         <v>805.2</v>
       </c>
       <c r="W18">
-        <v>683.7760494058766</v>
+        <v>683.7760494057674</v>
       </c>
       <c r="X18">
-        <v>674.4257447818468</v>
+        <v>674.4257447817457</v>
       </c>
       <c r="Y18">
-        <v>599.5614952386455</v>
+        <v>599.561495238576</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -11410,7 +11410,7 @@
         <v>20.0</v>
       </c>
       <c r="T19">
-        <v>65.66666666666666</v>
+        <v>65.66666666666667</v>
       </c>
       <c r="U19">
         <v>100.0</v>
@@ -11422,7 +11422,7 @@
         <v>54.333333333333336</v>
       </c>
       <c r="X19">
-        <v>65.66666666666666</v>
+        <v>65.66666666666667</v>
       </c>
       <c r="Y19">
         <v>20.0</v>
@@ -11451,22 +11451,22 @@
         <v>0.0</v>
       </c>
       <c r="H20">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="I20">
-        <v>20.0</v>
+        <v>32.57444057124413</v>
       </c>
       <c r="J20">
-        <v>56.333333333333336</v>
+        <v>62.64048121702045</v>
       </c>
       <c r="K20">
         <v>100.0</v>
       </c>
       <c r="L20">
-        <v>98.42817525267104</v>
+        <v>98.4281752527653</v>
       </c>
       <c r="M20">
-        <v>54.761508586004375</v>
+        <v>54.761508586098635</v>
       </c>
       <c r="N20">
         <v>20.0</v>
@@ -11475,7 +11475,7 @@
         <v>20.0</v>
       </c>
       <c r="P20">
-        <v>46.10499340299181</v>
+        <v>46.10499340295739</v>
       </c>
       <c r="Q20">
         <v>63.666666666666664</v>
@@ -11484,7 +11484,7 @@
         <v>20.0</v>
       </c>
       <c r="S20">
-        <v>60.48223627374214</v>
+        <v>60.48223627373876</v>
       </c>
       <c r="T20">
         <v>100.0</v>
@@ -11496,7 +11496,7 @@
         <v>100.0</v>
       </c>
       <c r="W20">
-        <v>59.10912315476322</v>
+        <v>59.10912315472977</v>
       </c>
       <c r="X20">
         <v>100.0</v>
@@ -11510,7 +11510,7 @@
         <v>44</v>
       </c>
       <c r="B21">
-        <v>40.41789270966722</v>
+        <v>26.90559597319151</v>
       </c>
       <c r="C21">
         <v>20.0</v>
@@ -11531,13 +11531,13 @@
         <v>0.0</v>
       </c>
       <c r="I21">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J21">
-        <v>34.98610037112293</v>
+        <v>0.0</v>
       </c>
       <c r="K21">
-        <v>76.6527670377896</v>
+        <v>81.68052782270543</v>
       </c>
       <c r="L21">
         <v>61.666666666666664</v>
@@ -11555,7 +11555,7 @@
         <v>20.0</v>
       </c>
       <c r="Q21">
-        <v>40.594361955670344</v>
+        <v>40.59436195563286</v>
       </c>
       <c r="R21">
         <v>20.0</v>
@@ -11638,10 +11638,10 @@
         <v>20.0</v>
       </c>
       <c r="S22">
-        <v>20.666666666666657</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="T22">
-        <v>60.33333333333333</v>
+        <v>60.333333333333336</v>
       </c>
       <c r="U22">
         <v>100.0</v>
@@ -11650,10 +11650,10 @@
         <v>100.0</v>
       </c>
       <c r="W22">
-        <v>60.33333333333333</v>
+        <v>60.333333333333336</v>
       </c>
       <c r="X22">
-        <v>20.666666666666657</v>
+        <v>20.666666666666668</v>
       </c>
       <c r="Y22">
         <v>20.0</v>
@@ -11715,10 +11715,10 @@
         <v>20.0</v>
       </c>
       <c r="S23">
-        <v>57.66666666666667</v>
+        <v>57.666666666666664</v>
       </c>
       <c r="T23">
-        <v>95.33333333333334</v>
+        <v>95.33333333333333</v>
       </c>
       <c r="U23">
         <v>100.0</v>
@@ -11727,13 +11727,13 @@
         <v>100.0</v>
       </c>
       <c r="W23">
-        <v>62.33333333333333</v>
+        <v>62.333333333333336</v>
       </c>
       <c r="X23">
-        <v>98.07835341723141</v>
+        <v>98.07835341712688</v>
       </c>
       <c r="Y23">
-        <v>60.41168675056474</v>
+        <v>60.411686750460206</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -11768,34 +11768,34 @@
         <v>0.0</v>
       </c>
       <c r="K24">
-        <v>27.200000000000003</v>
+        <v>27.2</v>
       </c>
       <c r="L24">
-        <v>27.200000000000003</v>
+        <v>27.2</v>
       </c>
       <c r="M24">
-        <v>27.200000000000003</v>
+        <v>27.2</v>
       </c>
       <c r="N24">
-        <v>27.200000000000003</v>
+        <v>27.2</v>
       </c>
       <c r="O24">
-        <v>27.200000000000003</v>
+        <v>27.2</v>
       </c>
       <c r="P24">
-        <v>27.200000000000003</v>
+        <v>27.2</v>
       </c>
       <c r="Q24">
-        <v>27.200000000000003</v>
+        <v>27.2</v>
       </c>
       <c r="R24">
-        <v>27.200000000000003</v>
+        <v>27.2</v>
       </c>
       <c r="S24">
-        <v>46.086690918577354</v>
+        <v>42.25066666666666</v>
       </c>
       <c r="T24">
-        <v>92.96135758524403</v>
+        <v>89.12533333333333</v>
       </c>
       <c r="U24">
         <v>136.0</v>
@@ -11807,10 +11807,10 @@
         <v>89.12533333333333</v>
       </c>
       <c r="X24">
-        <v>63.8095434009909</v>
+        <v>63.809543401117175</v>
       </c>
       <c r="Y24">
-        <v>27.200000000000003</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -11869,10 +11869,10 @@
         <v>20.0</v>
       </c>
       <c r="S25">
-        <v>32.66666666666668</v>
+        <v>32.666666666666664</v>
       </c>
       <c r="T25">
-        <v>66.33333333333334</v>
+        <v>66.33333333333333</v>
       </c>
       <c r="U25">
         <v>100.0</v>
@@ -11881,10 +11881,10 @@
         <v>100.0</v>
       </c>
       <c r="W25">
-        <v>66.33333333333334</v>
+        <v>66.33333333333333</v>
       </c>
       <c r="X25">
-        <v>32.66666666666668</v>
+        <v>32.666666666666664</v>
       </c>
       <c r="Y25">
         <v>20.0</v>
@@ -11946,10 +11946,10 @@
         <v>20.0</v>
       </c>
       <c r="S26">
-        <v>36.66666666666668</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="T26">
-        <v>68.33333333333334</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="U26">
         <v>100.0</v>
@@ -11958,10 +11958,10 @@
         <v>100.0</v>
       </c>
       <c r="W26">
-        <v>68.33333333333334</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="X26">
-        <v>36.66666666666668</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="Y26">
         <v>20.0</v>
@@ -12023,22 +12023,22 @@
         <v>0.0</v>
       </c>
       <c r="S27">
-        <v>103.13361333150536</v>
+        <v>106.9696375833529</v>
       </c>
       <c r="T27">
-        <v>184.09361333150537</v>
+        <v>187.92963758335287</v>
       </c>
       <c r="U27">
-        <v>265.0536133315054</v>
+        <v>268.88963758335274</v>
       </c>
       <c r="V27">
-        <v>279.62435442776444</v>
+        <v>279.6243544277451</v>
       </c>
       <c r="W27">
-        <v>198.66435442776444</v>
+        <v>198.66435442774514</v>
       </c>
       <c r="X27">
-        <v>117.70435442776443</v>
+        <v>117.70435442774516</v>
       </c>
       <c r="Y27">
         <v>70.4</v>
@@ -12106,10 +12106,10 @@
         <v>20.0</v>
       </c>
       <c r="U28">
-        <v>47.66666666666667</v>
+        <v>47.666666666666664</v>
       </c>
       <c r="V28">
-        <v>47.66666666666667</v>
+        <v>47.666666666666664</v>
       </c>
       <c r="W28">
         <v>20.0</v>
@@ -12183,10 +12183,10 @@
         <v>20.0</v>
       </c>
       <c r="U29">
-        <v>37.65929370951097</v>
+        <v>20.0</v>
       </c>
       <c r="V29">
-        <v>30.43511728622331</v>
+        <v>30.435117286152412</v>
       </c>
       <c r="W29">
         <v>20.0</v>
@@ -12260,7 +12260,7 @@
         <v>0.0</v>
       </c>
       <c r="U30">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="V30">
         <v>20.0</v>
@@ -12642,19 +12642,19 @@
         <v>0.0</v>
       </c>
       <c r="T35">
-        <v>82.80000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="U35">
-        <v>82.80000000000001</v>
+        <v>98.91815766176978</v>
       </c>
       <c r="V35">
-        <v>140.28884583762604</v>
+        <v>140.28884583755618</v>
       </c>
       <c r="W35">
-        <v>82.80000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="X35">
-        <v>82.80000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="Y35">
         <v>0.0</v>
@@ -12799,7 +12799,7 @@
         <v>0.0</v>
       </c>
       <c r="U37">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="V37">
         <v>20.0</v>
@@ -13666,7 +13666,7 @@
         <v>72</v>
       </c>
       <c r="B49">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="C49">
         <v>0.0</v>
@@ -14436,76 +14436,76 @@
         <v>82</v>
       </c>
       <c r="B59">
-        <v>30.201302915488007</v>
+        <v>30.2013029155205</v>
       </c>
       <c r="C59">
-        <v>30.216887836808205</v>
+        <v>30.216887836839305</v>
       </c>
       <c r="D59">
-        <v>27.65648649818595</v>
+        <v>27.656486498221057</v>
       </c>
       <c r="E59">
-        <v>27.87257637721748</v>
+        <v>27.8725763772527</v>
       </c>
       <c r="F59">
-        <v>31.23474238761003</v>
+        <v>31.23474238763447</v>
       </c>
       <c r="G59">
-        <v>31.585165746151254</v>
+        <v>31.585165746175335</v>
       </c>
       <c r="H59">
-        <v>27.199662578449367</v>
+        <v>27.199662578481366</v>
       </c>
       <c r="I59">
-        <v>29.39850310547352</v>
+        <v>29.39850310550537</v>
       </c>
       <c r="J59">
-        <v>31.593022072128488</v>
+        <v>31.593022072163876</v>
       </c>
       <c r="K59">
-        <v>32.27782463873222</v>
+        <v>32.27782463876065</v>
       </c>
       <c r="L59">
-        <v>34.13917005017321</v>
+        <v>34.13917005019903</v>
       </c>
       <c r="M59">
-        <v>39.91891275416647</v>
+        <v>39.91891275419039</v>
       </c>
       <c r="N59">
-        <v>37.187681570171364</v>
+        <v>37.18768157019804</v>
       </c>
       <c r="O59">
-        <v>38.442406454120395</v>
+        <v>38.44240645415266</v>
       </c>
       <c r="P59">
-        <v>41.34365217052171</v>
+        <v>41.343652170544374</v>
       </c>
       <c r="Q59">
-        <v>46.70827182046109</v>
+        <v>46.70827182049106</v>
       </c>
       <c r="R59">
-        <v>44.18586476381239</v>
+        <v>44.18586476384371</v>
       </c>
       <c r="S59">
-        <v>39.578993889792336</v>
+        <v>39.57899388982332</v>
       </c>
       <c r="T59">
-        <v>36.830854176462005</v>
+        <v>36.830854176485445</v>
       </c>
       <c r="U59">
-        <v>36.60474820146062</v>
+        <v>36.604748201483744</v>
       </c>
       <c r="V59">
-        <v>34.02438690718151</v>
+        <v>34.02438690721465</v>
       </c>
       <c r="W59">
-        <v>31.961034462768325</v>
+        <v>31.961034462801763</v>
       </c>
       <c r="X59">
-        <v>29.837775766668877</v>
+        <v>29.837775766704</v>
       </c>
       <c r="Y59">
-        <v>30.09350654404287</v>
+        <v>30.093506544071715</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -14513,76 +14513,76 @@
         <v>83</v>
       </c>
       <c r="B60">
-        <v>33.81397499433127</v>
+        <v>33.813974994336604</v>
       </c>
       <c r="C60">
-        <v>32.05143091594877</v>
+        <v>32.05143091595528</v>
       </c>
       <c r="D60">
-        <v>30.38736802715704</v>
+        <v>30.387368027164484</v>
       </c>
       <c r="E60">
-        <v>26.743757556731467</v>
+        <v>26.743757556738274</v>
       </c>
       <c r="F60">
-        <v>27.75118733784752</v>
+        <v>27.75118733785348</v>
       </c>
       <c r="G60">
-        <v>26.324897757865223</v>
+        <v>26.32489775786962</v>
       </c>
       <c r="H60">
-        <v>29.67278192394227</v>
+        <v>29.672781923953153</v>
       </c>
       <c r="I60">
-        <v>31.91175594258223</v>
+        <v>31.91175594258675</v>
       </c>
       <c r="J60">
-        <v>30.244213869359125</v>
+        <v>30.24421386936592</v>
       </c>
       <c r="K60">
-        <v>28.85105525365166</v>
+        <v>28.85105525366089</v>
       </c>
       <c r="L60">
-        <v>33.408332860116175</v>
+        <v>33.40833286012639</v>
       </c>
       <c r="M60">
-        <v>37.96373367401346</v>
+        <v>37.96373367401975</v>
       </c>
       <c r="N60">
-        <v>39.8121931666337</v>
+        <v>39.81219316663919</v>
       </c>
       <c r="O60">
-        <v>40.24087220361492</v>
+        <v>40.2408722036198</v>
       </c>
       <c r="P60">
-        <v>39.423712308533176</v>
+        <v>39.423712308540416</v>
       </c>
       <c r="Q60">
-        <v>42.97511125518378</v>
+        <v>42.975111255189404</v>
       </c>
       <c r="R60">
-        <v>47.49242545749073</v>
+        <v>47.49242545749439</v>
       </c>
       <c r="S60">
-        <v>44.851772252640494</v>
+        <v>44.85177225264488</v>
       </c>
       <c r="T60">
-        <v>38.58710906157284</v>
+        <v>38.587109061576484</v>
       </c>
       <c r="U60">
-        <v>36.873810655659874</v>
+        <v>36.87381065567024</v>
       </c>
       <c r="V60">
-        <v>34.19415186991383</v>
+        <v>34.1941518699241</v>
       </c>
       <c r="W60">
-        <v>32.40935028119624</v>
+        <v>32.40935028120293</v>
       </c>
       <c r="X60">
-        <v>29.679360286268253</v>
+        <v>29.67936028627446</v>
       </c>
       <c r="Y60">
-        <v>29.934454475754006</v>
+        <v>29.934454475762323</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -14605,10 +14605,10 @@
         <v>29.227366833616347</v>
       </c>
       <c r="G61">
-        <v>31.572163663393983</v>
+        <v>31.57216366339398</v>
       </c>
       <c r="H61">
-        <v>26.450905568270276</v>
+        <v>26.450905568270272</v>
       </c>
       <c r="I61">
         <v>28.380277817815973</v>
@@ -14667,76 +14667,76 @@
         <v>85</v>
       </c>
       <c r="B62">
-        <v>29.955115788866827</v>
+        <v>29.955115788878174</v>
       </c>
       <c r="C62">
-        <v>30.215329761344684</v>
+        <v>30.215329761362227</v>
       </c>
       <c r="D62">
-        <v>29.232744103991433</v>
+        <v>29.23274410400336</v>
       </c>
       <c r="E62">
-        <v>30.121127816935083</v>
+        <v>30.12112781695032</v>
       </c>
       <c r="F62">
-        <v>28.052025662662796</v>
+        <v>28.052025662676897</v>
       </c>
       <c r="G62">
-        <v>28.900005708541816</v>
+        <v>28.900005708557728</v>
       </c>
       <c r="H62">
-        <v>28.574719601115305</v>
+        <v>28.57471960112889</v>
       </c>
       <c r="I62">
-        <v>27.225002991746326</v>
+        <v>27.225002991763176</v>
       </c>
       <c r="J62">
-        <v>31.44268978391461</v>
+        <v>31.44268978392938</v>
       </c>
       <c r="K62">
-        <v>30.967688403104592</v>
+        <v>30.96768840312143</v>
       </c>
       <c r="L62">
-        <v>30.65342129933403</v>
+        <v>30.653421299350157</v>
       </c>
       <c r="M62">
-        <v>33.1492373736753</v>
+        <v>33.149237373690994</v>
       </c>
       <c r="N62">
-        <v>37.944569399085296</v>
+        <v>37.944569399100146</v>
       </c>
       <c r="O62">
-        <v>41.16232496204478</v>
+        <v>41.162324962060666</v>
       </c>
       <c r="P62">
-        <v>41.72478516842348</v>
+        <v>41.72478516843694</v>
       </c>
       <c r="Q62">
-        <v>42.32248450548523</v>
+        <v>42.32248450550105</v>
       </c>
       <c r="R62">
-        <v>48.80392675878723</v>
+        <v>48.803926758802845</v>
       </c>
       <c r="S62">
-        <v>38.97354447939641</v>
+        <v>38.97354447941325</v>
       </c>
       <c r="T62">
-        <v>40.66303643455567</v>
+        <v>40.66303643456922</v>
       </c>
       <c r="U62">
-        <v>36.761374851754326</v>
+        <v>36.76137485176878</v>
       </c>
       <c r="V62">
-        <v>35.84857505365359</v>
+        <v>35.848575053671084</v>
       </c>
       <c r="W62">
-        <v>33.3045159625946</v>
+        <v>33.30451596261264</v>
       </c>
       <c r="X62">
-        <v>32.063261603495185</v>
+        <v>32.06326160350727</v>
       </c>
       <c r="Y62">
-        <v>32.730135101473245</v>
+        <v>32.730135101490305</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -14765,7 +14765,7 @@
         <v>26.278242869411667</v>
       </c>
       <c r="I63">
-        <v>29.81332649506705</v>
+        <v>29.813326495067045</v>
       </c>
       <c r="J63">
         <v>32.84296604189241</v>
@@ -14774,7 +14774,7 @@
         <v>30.788467162051404</v>
       </c>
       <c r="L63">
-        <v>32.208699154030576</v>
+        <v>32.20869915403057</v>
       </c>
       <c r="M63">
         <v>37.84804155083056</v>
@@ -14821,76 +14821,76 @@
         <v>87</v>
       </c>
       <c r="B64">
-        <v>32.14487319842481</v>
+        <v>32.144873198427376</v>
       </c>
       <c r="C64">
-        <v>32.23261720627651</v>
+        <v>32.23261720627852</v>
       </c>
       <c r="D64">
-        <v>26.598222776263015</v>
+        <v>26.598222776265175</v>
       </c>
       <c r="E64">
-        <v>29.67477199691377</v>
+        <v>29.674771996915297</v>
       </c>
       <c r="F64">
-        <v>27.368372648196218</v>
+        <v>27.368372648197692</v>
       </c>
       <c r="G64">
-        <v>31.418649454918672</v>
+        <v>31.41864945492125</v>
       </c>
       <c r="H64">
-        <v>26.106455529916147</v>
+        <v>26.106455529918094</v>
       </c>
       <c r="I64">
-        <v>26.882703426199093</v>
+        <v>26.88270342620126</v>
       </c>
       <c r="J64">
-        <v>31.73951808047861</v>
+        <v>31.739518080479684</v>
       </c>
       <c r="K64">
-        <v>34.74160461258732</v>
+        <v>34.74160461258907</v>
       </c>
       <c r="L64">
-        <v>30.255832962309015</v>
+        <v>30.255832962311615</v>
       </c>
       <c r="M64">
-        <v>35.046054081442485</v>
+        <v>35.0460540814438</v>
       </c>
       <c r="N64">
-        <v>37.24219817556228</v>
+        <v>37.24219817556332</v>
       </c>
       <c r="O64">
-        <v>39.180385086833134</v>
+        <v>39.180385086834576</v>
       </c>
       <c r="P64">
-        <v>43.663574425837176</v>
+        <v>43.663574425838306</v>
       </c>
       <c r="Q64">
-        <v>45.797676649223256</v>
+        <v>45.79767664922474</v>
       </c>
       <c r="R64">
-        <v>49.34737867685328</v>
+        <v>49.34737867685544</v>
       </c>
       <c r="S64">
-        <v>38.9847699534672</v>
+        <v>38.98476995346937</v>
       </c>
       <c r="T64">
-        <v>36.231842179517876</v>
+        <v>36.231842179518935</v>
       </c>
       <c r="U64">
-        <v>35.51123522363847</v>
+        <v>35.51123522364105</v>
       </c>
       <c r="V64">
-        <v>36.10851667652099</v>
+        <v>36.10851667652241</v>
       </c>
       <c r="W64">
-        <v>38.36584157332771</v>
+        <v>38.36584157332982</v>
       </c>
       <c r="X64">
-        <v>35.74135519930203</v>
+        <v>35.74135519930314</v>
       </c>
       <c r="Y64">
-        <v>33.73550703154191</v>
+        <v>33.73550703154433</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -14975,76 +14975,76 @@
         <v>89</v>
       </c>
       <c r="B66">
-        <v>30.545436725545112</v>
+        <v>30.545436725547916</v>
       </c>
       <c r="C66">
-        <v>27.055908337536287</v>
+        <v>27.055908337539222</v>
       </c>
       <c r="D66">
-        <v>27.57635754363182</v>
+        <v>27.576357543635822</v>
       </c>
       <c r="E66">
-        <v>30.931162940642217</v>
+        <v>30.931162940645663</v>
       </c>
       <c r="F66">
-        <v>26.658081062931927</v>
+        <v>26.658081062934798</v>
       </c>
       <c r="G66">
-        <v>27.826886813192008</v>
+        <v>27.826886813196325</v>
       </c>
       <c r="H66">
-        <v>29.924123549333558</v>
+        <v>29.92412354933731</v>
       </c>
       <c r="I66">
-        <v>30.25212569270948</v>
+        <v>30.25212569271389</v>
       </c>
       <c r="J66">
-        <v>29.4510816422012</v>
+        <v>29.45108164220437</v>
       </c>
       <c r="K66">
-        <v>34.513468845663404</v>
+        <v>34.513468845667376</v>
       </c>
       <c r="L66">
-        <v>34.159233928066286</v>
+        <v>34.159233928070535</v>
       </c>
       <c r="M66">
-        <v>35.13812990011715</v>
+        <v>35.138129900120475</v>
       </c>
       <c r="N66">
-        <v>35.79355926385198</v>
+        <v>35.79355926385506</v>
       </c>
       <c r="O66">
-        <v>39.7606450096216</v>
+        <v>39.76064500962457</v>
       </c>
       <c r="P66">
-        <v>41.48535715706258</v>
+        <v>41.485357157065664</v>
       </c>
       <c r="Q66">
-        <v>39.77297123129113</v>
+        <v>39.77297123129392</v>
       </c>
       <c r="R66">
-        <v>47.66460226081331</v>
+        <v>47.66460226081654</v>
       </c>
       <c r="S66">
-        <v>41.08478454272978</v>
+        <v>41.08478454273427</v>
       </c>
       <c r="T66">
-        <v>37.63603563965544</v>
+        <v>37.636035639659895</v>
       </c>
       <c r="U66">
-        <v>33.05056826662605</v>
+        <v>33.05056826662985</v>
       </c>
       <c r="V66">
-        <v>37.42859846799426</v>
+        <v>37.42859846799729</v>
       </c>
       <c r="W66">
-        <v>32.74183614119846</v>
+        <v>32.74183614120193</v>
       </c>
       <c r="X66">
-        <v>33.78726750066719</v>
+        <v>33.78726750067108</v>
       </c>
       <c r="Y66">
-        <v>31.40826509887642</v>
+        <v>31.408265098880292</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -15129,76 +15129,76 @@
         <v>91</v>
       </c>
       <c r="B68">
-        <v>29.388504838422215</v>
+        <v>29.388504838425433</v>
       </c>
       <c r="C68">
-        <v>30.938780452566494</v>
+        <v>30.938780452570427</v>
       </c>
       <c r="D68">
-        <v>29.548951146991136</v>
+        <v>29.548951146995023</v>
       </c>
       <c r="E68">
-        <v>28.86629384423379</v>
+        <v>28.86629384423759</v>
       </c>
       <c r="F68">
-        <v>31.501076491545465</v>
+        <v>31.50107649154961</v>
       </c>
       <c r="G68">
-        <v>26.53672144675478</v>
+        <v>26.536721446758747</v>
       </c>
       <c r="H68">
-        <v>26.502053804232922</v>
+        <v>26.50205380423722</v>
       </c>
       <c r="I68">
-        <v>26.775540376510524</v>
+        <v>26.775540376514982</v>
       </c>
       <c r="J68">
-        <v>32.74746194589633</v>
+        <v>32.747461945900795</v>
       </c>
       <c r="K68">
-        <v>32.63726753445673</v>
+        <v>32.63726753446099</v>
       </c>
       <c r="L68">
-        <v>33.46544108223895</v>
+        <v>33.46544108224225</v>
       </c>
       <c r="M68">
-        <v>38.929997385549854</v>
+        <v>38.92999738555409</v>
       </c>
       <c r="N68">
-        <v>38.18496595124729</v>
+        <v>38.1849659512518</v>
       </c>
       <c r="O68">
-        <v>42.469195590341435</v>
+        <v>42.46919559034541</v>
       </c>
       <c r="P68">
-        <v>42.59021474553847</v>
+        <v>42.59021474554174</v>
       </c>
       <c r="Q68">
-        <v>46.27851141063363</v>
+        <v>46.27851141063729</v>
       </c>
       <c r="R68">
-        <v>44.06733213698794</v>
+        <v>44.06733213699226</v>
       </c>
       <c r="S68">
-        <v>42.2661098828889</v>
+        <v>42.266109882892124</v>
       </c>
       <c r="T68">
-        <v>38.175353665340566</v>
+        <v>38.17535366534503</v>
       </c>
       <c r="U68">
-        <v>31.965544036514522</v>
+        <v>31.965544036518622</v>
       </c>
       <c r="V68">
-        <v>38.083225526809265</v>
+        <v>38.083225526812384</v>
       </c>
       <c r="W68">
-        <v>33.13787861403371</v>
+        <v>33.13787861403762</v>
       </c>
       <c r="X68">
-        <v>29.87104492188086</v>
+        <v>29.871044921885186</v>
       </c>
       <c r="Y68">
-        <v>29.57887836900019</v>
+        <v>29.578878369004087</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -15668,76 +15668,76 @@
         <v>98</v>
       </c>
       <c r="B75">
-        <v>33.33055303203728</v>
+        <v>33.330553032050375</v>
       </c>
       <c r="C75">
-        <v>27.180690797868394</v>
+        <v>27.180690797889838</v>
       </c>
       <c r="D75">
-        <v>25.43992709396782</v>
+        <v>25.43992709397571</v>
       </c>
       <c r="E75">
-        <v>27.785319788166994</v>
+        <v>27.78531978817773</v>
       </c>
       <c r="F75">
-        <v>29.36108279221097</v>
+        <v>29.361082792223897</v>
       </c>
       <c r="G75">
-        <v>31.311041464148985</v>
+        <v>31.311041464170557</v>
       </c>
       <c r="H75">
-        <v>29.257471172551448</v>
+        <v>29.257471172561054</v>
       </c>
       <c r="I75">
-        <v>32.15238470806472</v>
+        <v>32.152384708082536</v>
       </c>
       <c r="J75">
-        <v>28.147192226608198</v>
+        <v>28.147192226620973</v>
       </c>
       <c r="K75">
-        <v>28.87875563453014</v>
+        <v>28.878755634548725</v>
       </c>
       <c r="L75">
-        <v>34.824886371718115</v>
+        <v>34.82488637173083</v>
       </c>
       <c r="M75">
-        <v>34.880615381448266</v>
+        <v>34.88061538146576</v>
       </c>
       <c r="N75">
-        <v>38.96499708034336</v>
+        <v>38.964997080358444</v>
       </c>
       <c r="O75">
-        <v>40.708185539494615</v>
+        <v>40.70818553950812</v>
       </c>
       <c r="P75">
-        <v>43.11437753345366</v>
+        <v>43.114377533463994</v>
       </c>
       <c r="Q75">
-        <v>42.60813801529514</v>
+        <v>42.608138015304576</v>
       </c>
       <c r="R75">
-        <v>48.93229032691155</v>
+        <v>48.93229032692034</v>
       </c>
       <c r="S75">
-        <v>39.64314922833067</v>
+        <v>39.643149228344555</v>
       </c>
       <c r="T75">
-        <v>37.031196260111265</v>
+        <v>37.03119626012631</v>
       </c>
       <c r="U75">
-        <v>33.07623956559067</v>
+        <v>33.07623956560565</v>
       </c>
       <c r="V75">
-        <v>38.75112598901846</v>
+        <v>38.7511259890307</v>
       </c>
       <c r="W75">
-        <v>38.55412969224504</v>
+        <v>38.554129692260176</v>
       </c>
       <c r="X75">
-        <v>29.597810391119264</v>
+        <v>29.597810391132953</v>
       </c>
       <c r="Y75">
-        <v>33.32582442162769</v>
+        <v>33.3258244216413</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -15745,76 +15745,76 @@
         <v>99</v>
       </c>
       <c r="B76">
-        <v>31.213091767958613</v>
+        <v>31.213091767959668</v>
       </c>
       <c r="C76">
-        <v>29.260831785016254</v>
+        <v>29.260831785017217</v>
       </c>
       <c r="D76">
-        <v>29.539119468436535</v>
+        <v>29.539119468437093</v>
       </c>
       <c r="E76">
-        <v>26.1590100692271</v>
+        <v>26.159010069228316</v>
       </c>
       <c r="F76">
-        <v>26.5733982353587</v>
+        <v>26.57339823535949</v>
       </c>
       <c r="G76">
-        <v>31.88529543050484</v>
+        <v>31.885295430505717</v>
       </c>
       <c r="H76">
-        <v>31.24163997426197</v>
+        <v>31.24163997426331</v>
       </c>
       <c r="I76">
-        <v>32.45922389366869</v>
+        <v>32.45922389366933</v>
       </c>
       <c r="J76">
-        <v>31.93801529266747</v>
+        <v>31.93801529266875</v>
       </c>
       <c r="K76">
-        <v>30.86121924041706</v>
+        <v>30.861219240417995</v>
       </c>
       <c r="L76">
-        <v>33.50287632033061</v>
+        <v>33.50287632033178</v>
       </c>
       <c r="M76">
-        <v>36.69248783757439</v>
+        <v>36.692487837575754</v>
       </c>
       <c r="N76">
-        <v>36.47278263458572</v>
+        <v>36.47278263458701</v>
       </c>
       <c r="O76">
-        <v>43.61443849490059</v>
+        <v>43.61443849490115</v>
       </c>
       <c r="P76">
-        <v>39.94662709276479</v>
+        <v>39.94662709276599</v>
       </c>
       <c r="Q76">
-        <v>41.759748813558765</v>
+        <v>41.75974881355978</v>
       </c>
       <c r="R76">
-        <v>40.99408471571287</v>
+        <v>40.994084715714045</v>
       </c>
       <c r="S76">
-        <v>40.54007144628137</v>
+        <v>40.54007144628213</v>
       </c>
       <c r="T76">
-        <v>35.00166805651224</v>
+        <v>35.001668056513154</v>
       </c>
       <c r="U76">
-        <v>37.49296496951533</v>
+        <v>37.492964969515924</v>
       </c>
       <c r="V76">
-        <v>36.08565406621749</v>
+        <v>36.08565406621801</v>
       </c>
       <c r="W76">
-        <v>38.643171038313675</v>
+        <v>38.6431710383149</v>
       </c>
       <c r="X76">
-        <v>30.05437468939243</v>
+        <v>30.05437468939363</v>
       </c>
       <c r="Y76">
-        <v>31.755022945425765</v>
+        <v>31.75502294542639</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -15822,76 +15822,76 @@
         <v>100</v>
       </c>
       <c r="B77">
-        <v>33.89109682352464</v>
+        <v>33.891096823557746</v>
       </c>
       <c r="C77">
-        <v>29.26242102292563</v>
+        <v>29.262421022955095</v>
       </c>
       <c r="D77">
-        <v>28.096441887025886</v>
+        <v>28.096441887057154</v>
       </c>
       <c r="E77">
-        <v>26.037960638753994</v>
+        <v>26.0379606387869</v>
       </c>
       <c r="F77">
-        <v>31.348173509363587</v>
+        <v>31.348173509395565</v>
       </c>
       <c r="G77">
-        <v>27.589131929774503</v>
+        <v>27.58913192980981</v>
       </c>
       <c r="H77">
-        <v>28.901275039133406</v>
+        <v>28.901275039155735</v>
       </c>
       <c r="I77">
-        <v>31.54624897390271</v>
+        <v>31.546248973929323</v>
       </c>
       <c r="J77">
-        <v>30.399842199814437</v>
+        <v>30.39984219984035</v>
       </c>
       <c r="K77">
-        <v>29.155459951998964</v>
+        <v>29.15545995203138</v>
       </c>
       <c r="L77">
-        <v>31.175269437646012</v>
+        <v>31.175269437677343</v>
       </c>
       <c r="M77">
-        <v>36.742250535339345</v>
+        <v>36.742250535375206</v>
       </c>
       <c r="N77">
-        <v>38.31282660525087</v>
+        <v>38.31282660528086</v>
       </c>
       <c r="O77">
-        <v>41.719560854738056</v>
+        <v>41.719560854762676</v>
       </c>
       <c r="P77">
-        <v>45.009729388670124</v>
+        <v>45.00972938869381</v>
       </c>
       <c r="Q77">
-        <v>39.56534118974157</v>
+        <v>39.565341189765604</v>
       </c>
       <c r="R77">
-        <v>45.3405957405935</v>
+        <v>45.34059574062121</v>
       </c>
       <c r="S77">
-        <v>44.20018906964581</v>
+        <v>44.20018906967016</v>
       </c>
       <c r="T77">
-        <v>39.591645675665724</v>
+        <v>39.59164567569678</v>
       </c>
       <c r="U77">
-        <v>32.68826322867179</v>
+        <v>32.688263228701544</v>
       </c>
       <c r="V77">
-        <v>33.32093967071083</v>
+        <v>33.32093967073888</v>
       </c>
       <c r="W77">
-        <v>36.005670821465166</v>
+        <v>36.005670821497915</v>
       </c>
       <c r="X77">
-        <v>35.22221646076189</v>
+        <v>35.22221646079561</v>
       </c>
       <c r="Y77">
-        <v>29.49994469382777</v>
+        <v>29.499944693860016</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -15899,76 +15899,76 @@
         <v>101</v>
       </c>
       <c r="B78">
-        <v>28.688300901152775</v>
+        <v>28.688300901156254</v>
       </c>
       <c r="C78">
-        <v>28.244780335603263</v>
+        <v>28.244780335606265</v>
       </c>
       <c r="D78">
-        <v>27.835613385625688</v>
+        <v>27.835613385628676</v>
       </c>
       <c r="E78">
-        <v>29.482205838717878</v>
+        <v>29.48220583872171</v>
       </c>
       <c r="F78">
-        <v>31.014209878937315</v>
+        <v>31.014209878940164</v>
       </c>
       <c r="G78">
-        <v>27.61432029580596</v>
+        <v>27.614320295810103</v>
       </c>
       <c r="H78">
-        <v>27.61904042140425</v>
+        <v>27.6190404214085</v>
       </c>
       <c r="I78">
-        <v>30.365685436555523</v>
+        <v>30.365685436559943</v>
       </c>
       <c r="J78">
-        <v>28.556675642506484</v>
+        <v>28.556675642510527</v>
       </c>
       <c r="K78">
-        <v>30.1421032399972</v>
+        <v>30.142103240001234</v>
       </c>
       <c r="L78">
-        <v>34.915517687910715</v>
+        <v>34.91551768791396</v>
       </c>
       <c r="M78">
-        <v>36.64282939846689</v>
+        <v>36.642829398469985</v>
       </c>
       <c r="N78">
-        <v>36.341114484658874</v>
+        <v>36.341114484663194</v>
       </c>
       <c r="O78">
-        <v>39.67608232394399</v>
+        <v>39.67608232394741</v>
       </c>
       <c r="P78">
-        <v>42.11354263529726</v>
+        <v>42.1135426353012</v>
       </c>
       <c r="Q78">
-        <v>40.480839538557085</v>
+        <v>40.48083953856076</v>
       </c>
       <c r="R78">
-        <v>48.46915279303098</v>
+        <v>48.46915279303539</v>
       </c>
       <c r="S78">
-        <v>46.40115966551792</v>
+        <v>46.401159665521845</v>
       </c>
       <c r="T78">
-        <v>35.26846351905967</v>
+        <v>35.268463519063516</v>
       </c>
       <c r="U78">
-        <v>36.90557354923436</v>
+        <v>36.9055735492384</v>
       </c>
       <c r="V78">
-        <v>33.067174142858676</v>
+        <v>33.067174142861404</v>
       </c>
       <c r="W78">
-        <v>37.5622256816682</v>
+        <v>37.56222568167141</v>
       </c>
       <c r="X78">
-        <v>35.241316280086814</v>
+        <v>35.24131628009127</v>
       </c>
       <c r="Y78">
-        <v>28.918803760815575</v>
+        <v>28.918803760820083</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -15976,76 +15976,76 @@
         <v>102</v>
       </c>
       <c r="B79">
-        <v>32.34266361145144</v>
+        <v>32.342663611453645</v>
       </c>
       <c r="C79">
-        <v>28.084820044856638</v>
+        <v>28.084820044858134</v>
       </c>
       <c r="D79">
-        <v>29.020962358122148</v>
+        <v>29.020962358124052</v>
       </c>
       <c r="E79">
-        <v>30.518412587601134</v>
+        <v>30.518412587603052</v>
       </c>
       <c r="F79">
-        <v>28.722276732032114</v>
+        <v>28.722276732033606</v>
       </c>
       <c r="G79">
-        <v>26.82824681503959</v>
+        <v>26.828246815040984</v>
       </c>
       <c r="H79">
-        <v>30.87341388096984</v>
+        <v>30.873413880971384</v>
       </c>
       <c r="I79">
-        <v>32.51564935103074</v>
+        <v>32.51564935103215</v>
       </c>
       <c r="J79">
-        <v>28.461100788049695</v>
+        <v>28.461100788051226</v>
       </c>
       <c r="K79">
-        <v>29.049501897983376</v>
+        <v>29.049501897985465</v>
       </c>
       <c r="L79">
-        <v>35.03489558787936</v>
+        <v>35.03489558788078</v>
       </c>
       <c r="M79">
-        <v>35.016335245005685</v>
+        <v>35.01633524500721</v>
       </c>
       <c r="N79">
-        <v>39.61041293250496</v>
+        <v>39.61041293250673</v>
       </c>
       <c r="O79">
-        <v>42.911453108211916</v>
+        <v>42.91145310821412</v>
       </c>
       <c r="P79">
-        <v>45.51970512789908</v>
+        <v>45.519705127901034</v>
       </c>
       <c r="Q79">
-        <v>46.34527578668287</v>
+        <v>46.3452757866844</v>
       </c>
       <c r="R79">
-        <v>45.51156829866888</v>
+        <v>45.51156829867068</v>
       </c>
       <c r="S79">
-        <v>42.071226667433955</v>
+        <v>42.07122666743544</v>
       </c>
       <c r="T79">
-        <v>36.121593224968976</v>
+        <v>36.12159322497064</v>
       </c>
       <c r="U79">
-        <v>32.12009880121266</v>
+        <v>32.120098801214226</v>
       </c>
       <c r="V79">
-        <v>38.80621971708545</v>
+        <v>38.806219717087515</v>
       </c>
       <c r="W79">
-        <v>34.592004182354906</v>
+        <v>34.592004182356504</v>
       </c>
       <c r="X79">
-        <v>30.70007479046766</v>
+        <v>30.700074790469444</v>
       </c>
       <c r="Y79">
-        <v>29.763760766676967</v>
+        <v>29.763760766678388</v>
       </c>
     </row>
     <row r="80" spans="1:25">
@@ -16053,76 +16053,76 @@
         <v>103</v>
       </c>
       <c r="B80">
-        <v>32.64524982318713</v>
+        <v>32.64524982319017</v>
       </c>
       <c r="C80">
-        <v>30.255317846260407</v>
+        <v>30.255317846264006</v>
       </c>
       <c r="D80">
-        <v>27.21673082966893</v>
+        <v>27.216730829672088</v>
       </c>
       <c r="E80">
-        <v>27.39563228947442</v>
+        <v>27.395632289477362</v>
       </c>
       <c r="F80">
-        <v>29.239559872262806</v>
+        <v>29.23955987226691</v>
       </c>
       <c r="G80">
-        <v>31.660655513953877</v>
+        <v>31.660655513956954</v>
       </c>
       <c r="H80">
-        <v>25.85874196078263</v>
+        <v>25.858741960786574</v>
       </c>
       <c r="I80">
-        <v>27.356205310129948</v>
+        <v>27.3562053101341</v>
       </c>
       <c r="J80">
-        <v>32.13742282924598</v>
+        <v>32.13742282924977</v>
       </c>
       <c r="K80">
-        <v>34.68305710230035</v>
+        <v>34.68305710230379</v>
       </c>
       <c r="L80">
-        <v>33.29355775291189</v>
+        <v>33.29355775291515</v>
       </c>
       <c r="M80">
-        <v>33.35965253744362</v>
+        <v>33.35965253744689</v>
       </c>
       <c r="N80">
-        <v>37.39571938526735</v>
+        <v>37.39571938527115</v>
       </c>
       <c r="O80">
-        <v>42.93675163948105</v>
+        <v>42.93675163948501</v>
       </c>
       <c r="P80">
-        <v>40.87069601703658</v>
+        <v>40.870696017040245</v>
       </c>
       <c r="Q80">
-        <v>42.655719753205084</v>
+        <v>42.65571975320927</v>
       </c>
       <c r="R80">
-        <v>43.15716413514767</v>
+        <v>43.157164135151106</v>
       </c>
       <c r="S80">
-        <v>39.28502150957562</v>
+        <v>39.285021509578655</v>
       </c>
       <c r="T80">
-        <v>37.54063979514398</v>
+        <v>37.54063979514831</v>
       </c>
       <c r="U80">
-        <v>32.71778283559777</v>
+        <v>32.71778283560161</v>
       </c>
       <c r="V80">
-        <v>33.96086071438701</v>
+        <v>33.96086071439095</v>
       </c>
       <c r="W80">
-        <v>38.46461625273719</v>
+        <v>38.4646162527406</v>
       </c>
       <c r="X80">
-        <v>33.18079733438484</v>
+        <v>33.180797334389354</v>
       </c>
       <c r="Y80">
-        <v>30.25998669158334</v>
+        <v>30.259986691586164</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -16207,76 +16207,76 @@
         <v>105</v>
       </c>
       <c r="B82">
-        <v>29.33266593743467</v>
+        <v>29.332665937439742</v>
       </c>
       <c r="C82">
-        <v>31.68026341963443</v>
+        <v>31.680263419639232</v>
       </c>
       <c r="D82">
-        <v>25.83492062631289</v>
+        <v>25.83492062631558</v>
       </c>
       <c r="E82">
-        <v>28.574091684162</v>
+        <v>28.57409168416416</v>
       </c>
       <c r="F82">
-        <v>28.74626216726302</v>
+        <v>28.74626216726756</v>
       </c>
       <c r="G82">
-        <v>26.394636945505074</v>
+        <v>26.394636945507955</v>
       </c>
       <c r="H82">
-        <v>28.469618823388725</v>
+        <v>28.46961882339383</v>
       </c>
       <c r="I82">
-        <v>29.969148850623167</v>
+        <v>29.96914885062506</v>
       </c>
       <c r="J82">
-        <v>28.876732782356314</v>
+        <v>28.876732782358886</v>
       </c>
       <c r="K82">
-        <v>34.12630577603514</v>
+        <v>34.12630577603704</v>
       </c>
       <c r="L82">
-        <v>31.614925240730173</v>
+        <v>31.61492524073401</v>
       </c>
       <c r="M82">
-        <v>33.312328205288644</v>
+        <v>33.312328205291124</v>
       </c>
       <c r="N82">
-        <v>35.60621845380524</v>
+        <v>35.60621845380956</v>
       </c>
       <c r="O82">
-        <v>42.13954687502921</v>
+        <v>42.139546875034284</v>
       </c>
       <c r="P82">
-        <v>43.828754443872384</v>
+        <v>43.82875444387537</v>
       </c>
       <c r="Q82">
-        <v>42.398071718592604</v>
+        <v>42.39807171859502</v>
       </c>
       <c r="R82">
-        <v>43.43044965988443</v>
+        <v>43.430449659888836</v>
       </c>
       <c r="S82">
-        <v>46.27364728352703</v>
+        <v>46.27364728353132</v>
       </c>
       <c r="T82">
-        <v>39.4466158229615</v>
+        <v>39.44661582296612</v>
       </c>
       <c r="U82">
-        <v>31.872753037527946</v>
+        <v>31.872753037532675</v>
       </c>
       <c r="V82">
-        <v>38.04840378064559</v>
+        <v>38.048403780649096</v>
       </c>
       <c r="W82">
-        <v>32.36815049423844</v>
+        <v>32.36815049424331</v>
       </c>
       <c r="X82">
-        <v>29.826169103513767</v>
+        <v>29.826169103518623</v>
       </c>
       <c r="Y82">
-        <v>34.204723799214634</v>
+        <v>34.20472379921921</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -16284,76 +16284,76 @@
         <v>106</v>
       </c>
       <c r="B83">
-        <v>28.294176352212805</v>
+        <v>28.29417635221398</v>
       </c>
       <c r="C83">
-        <v>28.390100290993928</v>
+        <v>28.39010029099518</v>
       </c>
       <c r="D83">
-        <v>25.581015635821426</v>
+        <v>25.58101563582386</v>
       </c>
       <c r="E83">
-        <v>29.40038381941019</v>
+        <v>29.400383819411218</v>
       </c>
       <c r="F83">
-        <v>26.89152753881283</v>
+        <v>26.891527538815353</v>
       </c>
       <c r="G83">
-        <v>30.975923649974085</v>
+        <v>30.97592364997581</v>
       </c>
       <c r="H83">
-        <v>29.97597140191198</v>
+        <v>29.97597140191465</v>
       </c>
       <c r="I83">
-        <v>30.911284501978987</v>
+        <v>30.911284501980845</v>
       </c>
       <c r="J83">
-        <v>31.606261727796717</v>
+        <v>31.606261727798483</v>
       </c>
       <c r="K83">
-        <v>30.55703616399774</v>
+        <v>30.557036164000237</v>
       </c>
       <c r="L83">
-        <v>32.62655202386515</v>
+        <v>32.62655202386668</v>
       </c>
       <c r="M83">
-        <v>34.11580955152189</v>
+        <v>34.11580955152385</v>
       </c>
       <c r="N83">
-        <v>38.62625338558945</v>
+        <v>38.62625338559155</v>
       </c>
       <c r="O83">
-        <v>41.839165257244126</v>
+        <v>41.83916525724635</v>
       </c>
       <c r="P83">
-        <v>41.102086446845426</v>
+        <v>41.10208644684644</v>
       </c>
       <c r="Q83">
-        <v>44.238483296483246</v>
+        <v>44.238483296485356</v>
       </c>
       <c r="R83">
-        <v>45.950248205342625</v>
+        <v>45.950248205344906</v>
       </c>
       <c r="S83">
-        <v>44.89744338192811</v>
+        <v>44.897443381929406</v>
       </c>
       <c r="T83">
-        <v>37.510740961715456</v>
+        <v>37.5107409617176</v>
       </c>
       <c r="U83">
-        <v>32.92590704020984</v>
+        <v>32.925907040211314</v>
       </c>
       <c r="V83">
-        <v>35.40760751593317</v>
+        <v>35.407607515935524</v>
       </c>
       <c r="W83">
-        <v>34.16610591659158</v>
+        <v>34.16610591659264</v>
       </c>
       <c r="X83">
-        <v>32.554948052716256</v>
+        <v>32.55494805271883</v>
       </c>
       <c r="Y83">
-        <v>33.60762610121278</v>
+        <v>33.60762610121492</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -16438,76 +16438,76 @@
         <v>108</v>
       </c>
       <c r="B85">
-        <v>32.70957864873753</v>
+        <v>32.70957864874799</v>
       </c>
       <c r="C85">
-        <v>28.543093657370644</v>
+        <v>28.54309365737572</v>
       </c>
       <c r="D85">
-        <v>26.08850735907049</v>
+        <v>26.088507359076175</v>
       </c>
       <c r="E85">
-        <v>27.219059989354527</v>
+        <v>27.219059989358357</v>
       </c>
       <c r="F85">
-        <v>28.94665230336941</v>
+        <v>28.94665230337705</v>
       </c>
       <c r="G85">
-        <v>28.546681929309553</v>
+        <v>28.546681929314218</v>
       </c>
       <c r="H85">
-        <v>28.49082952023013</v>
+        <v>28.490829520240368</v>
       </c>
       <c r="I85">
-        <v>32.46282111437419</v>
+        <v>32.46282111437904</v>
       </c>
       <c r="J85">
-        <v>29.84585876138534</v>
+        <v>29.845858761393174</v>
       </c>
       <c r="K85">
-        <v>33.51701370026997</v>
+        <v>33.51701370027877</v>
       </c>
       <c r="L85">
-        <v>33.06372632300335</v>
+        <v>33.06372632300918</v>
       </c>
       <c r="M85">
-        <v>34.849140870563524</v>
+        <v>34.84914087057405</v>
       </c>
       <c r="N85">
-        <v>40.91360330532039</v>
+        <v>40.91360330532916</v>
       </c>
       <c r="O85">
-        <v>37.7740543836224</v>
+        <v>37.77405438362621</v>
       </c>
       <c r="P85">
-        <v>39.61366015622124</v>
+        <v>39.61366015623207</v>
       </c>
       <c r="Q85">
-        <v>45.66621529044989</v>
+        <v>45.66621529045369</v>
       </c>
       <c r="R85">
-        <v>42.27439752715895</v>
+        <v>42.274397527166</v>
       </c>
       <c r="S85">
-        <v>42.11500939211098</v>
+        <v>42.11500939211692</v>
       </c>
       <c r="T85">
-        <v>40.629535714479836</v>
+        <v>40.62953571448452</v>
       </c>
       <c r="U85">
-        <v>36.0212276623158</v>
+        <v>36.0212276623206</v>
       </c>
       <c r="V85">
-        <v>34.1452333139361</v>
+        <v>34.14523331394594</v>
       </c>
       <c r="W85">
-        <v>34.51905418379094</v>
+        <v>34.51905418379465</v>
       </c>
       <c r="X85">
-        <v>29.734980120914063</v>
+        <v>29.734980120920227</v>
       </c>
       <c r="Y85">
-        <v>31.444065661183192</v>
+        <v>31.444065661191416</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -16515,76 +16515,76 @@
         <v>109</v>
       </c>
       <c r="B86">
-        <v>34.13942567108113</v>
+        <v>34.13942567108279</v>
       </c>
       <c r="C86">
-        <v>31.059837996407378</v>
+        <v>31.059837996408532</v>
       </c>
       <c r="D86">
-        <v>27.532177574054444</v>
+        <v>27.532177574055822</v>
       </c>
       <c r="E86">
-        <v>31.144757085207544</v>
+        <v>31.144757085208767</v>
       </c>
       <c r="F86">
-        <v>29.078073534971455</v>
+        <v>29.078073534972646</v>
       </c>
       <c r="G86">
-        <v>29.348312143205973</v>
+        <v>29.348312143207295</v>
       </c>
       <c r="H86">
-        <v>30.86739186887385</v>
+        <v>30.86739186887644</v>
       </c>
       <c r="I86">
-        <v>26.788821177575205</v>
+        <v>26.78882117757712</v>
       </c>
       <c r="J86">
-        <v>29.816003701264084</v>
+        <v>29.8160037012658</v>
       </c>
       <c r="K86">
-        <v>34.72529822862543</v>
+        <v>34.72529822862634</v>
       </c>
       <c r="L86">
-        <v>32.37349482739005</v>
+        <v>32.37349482739228</v>
       </c>
       <c r="M86">
-        <v>34.61541382135264</v>
+        <v>34.615413821355105</v>
       </c>
       <c r="N86">
-        <v>37.93486090804627</v>
+        <v>37.934860908047995</v>
       </c>
       <c r="O86">
-        <v>37.237119656972574</v>
+        <v>37.237119656974755</v>
       </c>
       <c r="P86">
-        <v>38.51910767483361</v>
+        <v>38.51910767483605</v>
       </c>
       <c r="Q86">
-        <v>39.053755851029926</v>
+        <v>39.05375585103138</v>
       </c>
       <c r="R86">
-        <v>46.79486523336684</v>
+        <v>46.79486523336891</v>
       </c>
       <c r="S86">
-        <v>44.02149320367227</v>
+        <v>44.021493203674254</v>
       </c>
       <c r="T86">
-        <v>35.012701826918295</v>
+        <v>35.01270182691951</v>
       </c>
       <c r="U86">
-        <v>36.89511211014568</v>
+        <v>36.89511211014724</v>
       </c>
       <c r="V86">
-        <v>36.57060648043485</v>
+        <v>36.570606480436254</v>
       </c>
       <c r="W86">
-        <v>38.25752485850277</v>
+        <v>38.25752485850535</v>
       </c>
       <c r="X86">
-        <v>35.50818635183344</v>
+        <v>35.50818635183532</v>
       </c>
       <c r="Y86">
-        <v>32.03727906773446</v>
+        <v>32.03727906773565</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -16746,76 +16746,76 @@
         <v>112</v>
       </c>
       <c r="B89">
-        <v>31.976215523484925</v>
+        <v>31.976215523489373</v>
       </c>
       <c r="C89">
-        <v>27.619657003505058</v>
+        <v>27.61965700350811</v>
       </c>
       <c r="D89">
-        <v>30.348541877397142</v>
+        <v>30.348541877401658</v>
       </c>
       <c r="E89">
-        <v>28.825465984317514</v>
+        <v>28.825465984320545</v>
       </c>
       <c r="F89">
-        <v>28.02419975582013</v>
+        <v>28.024199755824156</v>
       </c>
       <c r="G89">
-        <v>30.712962373863764</v>
+        <v>30.712962373867413</v>
       </c>
       <c r="H89">
-        <v>26.454257894170368</v>
+        <v>26.45425789417459</v>
       </c>
       <c r="I89">
-        <v>27.56854323430281</v>
+        <v>27.56854323430707</v>
       </c>
       <c r="J89">
-        <v>31.613485959036193</v>
+        <v>31.61348595904019</v>
       </c>
       <c r="K89">
-        <v>31.110922466614454</v>
+        <v>31.11092246661792</v>
       </c>
       <c r="L89">
-        <v>33.23258905997492</v>
+        <v>33.232589059978636</v>
       </c>
       <c r="M89">
-        <v>35.7600041050151</v>
+        <v>35.76000410501911</v>
       </c>
       <c r="N89">
-        <v>38.89321363727426</v>
+        <v>38.89321363727868</v>
       </c>
       <c r="O89">
-        <v>43.38597860565355</v>
+        <v>43.38597860565642</v>
       </c>
       <c r="P89">
-        <v>40.29467140838138</v>
+        <v>40.2946714083846</v>
       </c>
       <c r="Q89">
-        <v>44.30169638663965</v>
+        <v>44.301696386643016</v>
       </c>
       <c r="R89">
-        <v>45.01738621595489</v>
+        <v>45.01738621595905</v>
       </c>
       <c r="S89">
-        <v>40.66058245531655</v>
+        <v>40.660582455320764</v>
       </c>
       <c r="T89">
-        <v>38.19606740202122</v>
+        <v>38.19606740202471</v>
       </c>
       <c r="U89">
-        <v>33.65678881745759</v>
+        <v>33.65678881746135</v>
       </c>
       <c r="V89">
-        <v>33.7489722948282</v>
+        <v>33.74897229483213</v>
       </c>
       <c r="W89">
-        <v>37.152496921482</v>
+        <v>37.15249692148609</v>
       </c>
       <c r="X89">
-        <v>30.08144015991846</v>
+        <v>30.08144015992184</v>
       </c>
       <c r="Y89">
-        <v>30.702998460892402</v>
+        <v>30.702998460896197</v>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -16900,76 +16900,76 @@
         <v>114</v>
       </c>
       <c r="B91">
-        <v>28.81208912232225</v>
+        <v>28.81208912232978</v>
       </c>
       <c r="C91">
-        <v>31.219337909303913</v>
+        <v>31.219337909307797</v>
       </c>
       <c r="D91">
-        <v>29.254877455099248</v>
+        <v>29.25487745510327</v>
       </c>
       <c r="E91">
-        <v>28.397623604917246</v>
+        <v>28.397623604927503</v>
       </c>
       <c r="F91">
-        <v>29.575198386459707</v>
+        <v>29.5751983864684</v>
       </c>
       <c r="G91">
-        <v>30.07766005973693</v>
+        <v>30.07766005974554</v>
       </c>
       <c r="H91">
-        <v>31.065140900097795</v>
+        <v>31.065140900107508</v>
       </c>
       <c r="I91">
-        <v>31.94579148833322</v>
+        <v>31.945791488338728</v>
       </c>
       <c r="J91">
-        <v>28.035715458932447</v>
+        <v>28.035715458936465</v>
       </c>
       <c r="K91">
-        <v>34.29793078086358</v>
+        <v>34.297930780870956</v>
       </c>
       <c r="L91">
-        <v>33.176739501794884</v>
+        <v>33.17673950180324</v>
       </c>
       <c r="M91">
-        <v>35.264032175577356</v>
+        <v>35.26403217558254</v>
       </c>
       <c r="N91">
-        <v>34.888090869663884</v>
+        <v>34.88809086967376</v>
       </c>
       <c r="O91">
-        <v>42.51474801509077</v>
+        <v>42.51474801509903</v>
       </c>
       <c r="P91">
-        <v>37.58684992665622</v>
+        <v>37.58684992666531</v>
       </c>
       <c r="Q91">
-        <v>43.75467991225937</v>
+        <v>43.75467991226469</v>
       </c>
       <c r="R91">
-        <v>46.44985809376554</v>
+        <v>46.44985809377249</v>
       </c>
       <c r="S91">
-        <v>45.66514285920764</v>
+        <v>45.66514285921585</v>
       </c>
       <c r="T91">
-        <v>38.74262727092705</v>
+        <v>38.74262727093446</v>
       </c>
       <c r="U91">
-        <v>37.640835820872084</v>
+        <v>37.64083582087915</v>
       </c>
       <c r="V91">
-        <v>34.34182914414151</v>
+        <v>34.341829144148505</v>
       </c>
       <c r="W91">
-        <v>34.15545831138334</v>
+        <v>34.15545831139025</v>
       </c>
       <c r="X91">
-        <v>30.74914283735052</v>
+        <v>30.749142837354157</v>
       </c>
       <c r="Y91">
-        <v>33.76891823600597</v>
+        <v>33.768918236011814</v>
       </c>
     </row>
     <row r="92" spans="1:25">
@@ -17131,76 +17131,76 @@
         <v>117</v>
       </c>
       <c r="B94">
-        <v>30.330972208378792</v>
+        <v>30.33097220838681</v>
       </c>
       <c r="C94">
-        <v>27.884064450935764</v>
+        <v>27.884064450943697</v>
       </c>
       <c r="D94">
-        <v>27.103360562088245</v>
+        <v>27.103360562094167</v>
       </c>
       <c r="E94">
-        <v>30.649585264577578</v>
+        <v>30.649585264585767</v>
       </c>
       <c r="F94">
-        <v>26.162958064131335</v>
+        <v>26.162958064138365</v>
       </c>
       <c r="G94">
-        <v>31.326725017851672</v>
+        <v>31.326725017857825</v>
       </c>
       <c r="H94">
-        <v>28.24772868453468</v>
+        <v>28.24772868454238</v>
       </c>
       <c r="I94">
-        <v>27.666110815347295</v>
+        <v>27.666110815353022</v>
       </c>
       <c r="J94">
-        <v>30.057104263826325</v>
+        <v>30.057104263833025</v>
       </c>
       <c r="K94">
-        <v>30.973637930036602</v>
+        <v>30.973637930044788</v>
       </c>
       <c r="L94">
-        <v>32.25383546114663</v>
+        <v>32.25383546115336</v>
       </c>
       <c r="M94">
-        <v>37.19743352013106</v>
+        <v>37.197433520137565</v>
       </c>
       <c r="N94">
-        <v>41.55122892466859</v>
+        <v>41.55122892467625</v>
       </c>
       <c r="O94">
-        <v>41.13248568449455</v>
+        <v>41.13248568450217</v>
       </c>
       <c r="P94">
-        <v>39.56303132278511</v>
+        <v>39.563031322792085</v>
       </c>
       <c r="Q94">
-        <v>41.8075317485936</v>
+        <v>41.80753174860001</v>
       </c>
       <c r="R94">
-        <v>44.65818552666894</v>
+        <v>44.6581855266777</v>
       </c>
       <c r="S94">
-        <v>46.24535555491427</v>
+        <v>46.245355554921844</v>
       </c>
       <c r="T94">
-        <v>40.217657998283165</v>
+        <v>40.21765799829154</v>
       </c>
       <c r="U94">
-        <v>32.28863075098872</v>
+        <v>32.28863075099434</v>
       </c>
       <c r="V94">
-        <v>34.19712750772986</v>
+        <v>34.197127507737605</v>
       </c>
       <c r="W94">
-        <v>34.6066709735003</v>
+        <v>34.60667097350597</v>
       </c>
       <c r="X94">
-        <v>35.71114223361726</v>
+        <v>35.71114223362383</v>
       </c>
       <c r="Y94">
-        <v>29.642975924155696</v>
+        <v>29.642975924161874</v>
       </c>
     </row>
     <row r="95" spans="1:25">
@@ -17208,76 +17208,76 @@
         <v>118</v>
       </c>
       <c r="B95">
-        <v>28.151001507601105</v>
+        <v>28.151001507603723</v>
       </c>
       <c r="C95">
-        <v>30.024467959145582</v>
+        <v>30.024467959146932</v>
       </c>
       <c r="D95">
-        <v>26.017686927162806</v>
+        <v>26.017686927165414</v>
       </c>
       <c r="E95">
-        <v>26.026015534007225</v>
+        <v>26.026015534009275</v>
       </c>
       <c r="F95">
-        <v>30.916521625277188</v>
+        <v>30.91652162527862</v>
       </c>
       <c r="G95">
-        <v>29.456615310622453</v>
+        <v>29.45661531062433</v>
       </c>
       <c r="H95">
-        <v>31.00611978469678</v>
+        <v>31.006119784698967</v>
       </c>
       <c r="I95">
-        <v>31.028948208937642</v>
+        <v>31.028948208939255</v>
       </c>
       <c r="J95">
-        <v>30.753611884944416</v>
+        <v>30.753611884945713</v>
       </c>
       <c r="K95">
-        <v>29.337884137810388</v>
+        <v>29.33788413781258</v>
       </c>
       <c r="L95">
         <v>33.0354694224734</v>
       </c>
       <c r="M95">
-        <v>33.98152376371676</v>
+        <v>33.98152376371945</v>
       </c>
       <c r="N95">
-        <v>41.191362658735926</v>
+        <v>41.19136265873749</v>
       </c>
       <c r="O95">
-        <v>43.05385066427633</v>
+        <v>43.0538506642788</v>
       </c>
       <c r="P95">
-        <v>44.56390633539222</v>
+        <v>44.56390633539377</v>
       </c>
       <c r="Q95">
-        <v>40.84272902362092</v>
+        <v>40.84272902362318</v>
       </c>
       <c r="R95">
-        <v>41.54882734759284</v>
+        <v>41.54882734759485</v>
       </c>
       <c r="S95">
-        <v>43.321916524064264</v>
+        <v>43.32191652406618</v>
       </c>
       <c r="T95">
-        <v>35.39061110499272</v>
+        <v>35.390611104994605</v>
       </c>
       <c r="U95">
-        <v>36.69515019372169</v>
+        <v>36.69515019372375</v>
       </c>
       <c r="V95">
-        <v>38.264586731441675</v>
+        <v>38.26458673144407</v>
       </c>
       <c r="W95">
-        <v>34.458876646235225</v>
+        <v>34.458876646236604</v>
       </c>
       <c r="X95">
-        <v>33.46530601135672</v>
+        <v>33.465306011357825</v>
       </c>
       <c r="Y95">
-        <v>29.369548102642714</v>
+        <v>29.36954810264433</v>
       </c>
     </row>
     <row r="96" spans="1:25">
@@ -17374,49 +17374,49 @@
         <v>0.0</v>
       </c>
       <c r="F97">
-        <v>0.00013591297173476898</v>
+        <v>0.00013591298193205148</v>
       </c>
       <c r="G97">
-        <v>7.247395734243737</v>
+        <v>7.247395734251768</v>
       </c>
       <c r="H97">
-        <v>29.091044820250904</v>
+        <v>29.091044820255775</v>
       </c>
       <c r="I97">
-        <v>65.3292931238003</v>
+        <v>65.3292931238102</v>
       </c>
       <c r="J97">
-        <v>83.31682409593175</v>
+        <v>83.31682409594214</v>
       </c>
       <c r="K97">
-        <v>82.1784650647367</v>
+        <v>82.17846506474598</v>
       </c>
       <c r="L97">
-        <v>92.75228487841514</v>
+        <v>92.75228487842105</v>
       </c>
       <c r="M97">
-        <v>84.38909762109051</v>
+        <v>84.38909762109688</v>
       </c>
       <c r="N97">
-        <v>91.0707995152058</v>
+        <v>91.07079951521155</v>
       </c>
       <c r="O97">
-        <v>86.22036869734747</v>
+        <v>86.22036869735166</v>
       </c>
       <c r="P97">
-        <v>91.87367140582714</v>
+        <v>91.87367140583228</v>
       </c>
       <c r="Q97">
-        <v>73.11605755197581</v>
+        <v>73.11605755198252</v>
       </c>
       <c r="R97">
-        <v>45.000386924719194</v>
+        <v>45.00038692472299</v>
       </c>
       <c r="S97">
-        <v>15.827658032509337</v>
+        <v>15.82765803251823</v>
       </c>
       <c r="T97">
-        <v>0.5720213378769985</v>
+        <v>0.5720213378808694</v>
       </c>
       <c r="U97">
         <v>0.0</v>
@@ -17451,49 +17451,49 @@
         <v>0.0</v>
       </c>
       <c r="F98">
-        <v>0.00015309250270745462</v>
+        <v>0.00015309250375139527</v>
       </c>
       <c r="G98">
-        <v>7.420457336936026</v>
+        <v>7.420457336937034</v>
       </c>
       <c r="H98">
-        <v>30.432449394267724</v>
+        <v>30.432449394269497</v>
       </c>
       <c r="I98">
-        <v>70.55238568950651</v>
+        <v>70.55238568950881</v>
       </c>
       <c r="J98">
-        <v>79.36233390950783</v>
+        <v>79.3623339095102</v>
       </c>
       <c r="K98">
-        <v>91.75702619115056</v>
+        <v>91.75702619115327</v>
       </c>
       <c r="L98">
-        <v>89.09132904759274</v>
+        <v>89.09132904759463</v>
       </c>
       <c r="M98">
-        <v>97.12508617719512</v>
+        <v>97.12508617719686</v>
       </c>
       <c r="N98">
-        <v>86.39749266198402</v>
+        <v>86.39749266198669</v>
       </c>
       <c r="O98">
-        <v>96.06627143755975</v>
+        <v>96.06627143756123</v>
       </c>
       <c r="P98">
-        <v>84.02183798301223</v>
+        <v>84.02183798301485</v>
       </c>
       <c r="Q98">
-        <v>77.8860503034969</v>
+        <v>77.88605030349936</v>
       </c>
       <c r="R98">
-        <v>45.510489196501275</v>
+        <v>45.51048919650384</v>
       </c>
       <c r="S98">
-        <v>15.928906326987711</v>
+        <v>15.928906326989818</v>
       </c>
       <c r="T98">
-        <v>0.6368226928967602</v>
+        <v>0.6368226928989316</v>
       </c>
       <c r="U98">
         <v>0.0</v>
@@ -17528,49 +17528,49 @@
         <v>0.0</v>
       </c>
       <c r="F99">
-        <v>0.00014344472588554406</v>
+        <v>0.00014344473311211914</v>
       </c>
       <c r="G99">
         <v>6.842183729746466</v>
       </c>
       <c r="H99">
-        <v>33.38023906544236</v>
+        <v>33.38023906544913</v>
       </c>
       <c r="I99">
-        <v>65.53928771175514</v>
+        <v>65.53928771176288</v>
       </c>
       <c r="J99">
-        <v>89.19354987112794</v>
+        <v>89.19354987113547</v>
       </c>
       <c r="K99">
-        <v>88.87372375591374</v>
+        <v>88.87372375592167</v>
       </c>
       <c r="L99">
-        <v>99.10647589817962</v>
+        <v>99.10647589818836</v>
       </c>
       <c r="M99">
-        <v>90.28502729656296</v>
+        <v>90.28502729656975</v>
       </c>
       <c r="N99">
-        <v>87.52185418912843</v>
+        <v>87.52185418913723</v>
       </c>
       <c r="O99">
-        <v>82.48759863148419</v>
+        <v>82.48759863149098</v>
       </c>
       <c r="P99">
-        <v>79.62527354970392</v>
+        <v>79.62527354971098</v>
       </c>
       <c r="Q99">
-        <v>71.66828584114148</v>
+        <v>71.66828584114774</v>
       </c>
       <c r="R99">
-        <v>44.42555664492722</v>
+        <v>44.42555664493557</v>
       </c>
       <c r="S99">
-        <v>15.72573750313975</v>
+        <v>15.725737503147684</v>
       </c>
       <c r="T99">
-        <v>0.6739123551764924</v>
+        <v>0.6739123551851662</v>
       </c>
       <c r="U99">
         <v>0.0</v>
@@ -17759,49 +17759,49 @@
         <v>0.0</v>
       </c>
       <c r="F102">
-        <v>0.00014896841370368307</v>
+        <v>0.00014896842185407877</v>
       </c>
       <c r="G102">
-        <v>6.895001650372072</v>
+        <v>6.895001650380436</v>
       </c>
       <c r="H102">
-        <v>32.884916042353936</v>
+        <v>32.88491604236333</v>
       </c>
       <c r="I102">
-        <v>63.17715694756154</v>
+        <v>63.17715694756771</v>
       </c>
       <c r="J102">
-        <v>88.5396549465499</v>
+        <v>88.53965494655858</v>
       </c>
       <c r="K102">
-        <v>84.33926131333794</v>
+        <v>84.33926131334738</v>
       </c>
       <c r="L102">
-        <v>83.48149384712063</v>
+        <v>83.48149384712451</v>
       </c>
       <c r="M102">
-        <v>87.0276243634824</v>
+        <v>87.02762436348712</v>
       </c>
       <c r="N102">
-        <v>94.01652693553831</v>
+        <v>94.01652693554206</v>
       </c>
       <c r="O102">
-        <v>99.2430585477889</v>
+        <v>99.24305854779959</v>
       </c>
       <c r="P102">
-        <v>88.97015986202743</v>
+        <v>88.97015986203769</v>
       </c>
       <c r="Q102">
-        <v>80.47782759262665</v>
+        <v>80.47782759263646</v>
       </c>
       <c r="R102">
-        <v>41.320353509102596</v>
+        <v>41.32035350910883</v>
       </c>
       <c r="S102">
-        <v>14.749118147186616</v>
+        <v>14.749118147192348</v>
       </c>
       <c r="T102">
-        <v>0.654897352216902</v>
+        <v>0.6548973522221786</v>
       </c>
       <c r="U102">
         <v>0.0</v>
@@ -18067,49 +18067,49 @@
         <v>0.0</v>
       </c>
       <c r="F106">
-        <v>0.00016287299895143765</v>
+        <v>0.00016287300240946934</v>
       </c>
       <c r="G106">
-        <v>6.853286338370253</v>
+        <v>6.853286338373437</v>
       </c>
       <c r="H106">
-        <v>33.78410848477304</v>
+        <v>33.78410848477688</v>
       </c>
       <c r="I106">
-        <v>64.27304527947433</v>
+        <v>64.27304527947854</v>
       </c>
       <c r="J106">
-        <v>84.29265146888036</v>
+        <v>84.29265146888429</v>
       </c>
       <c r="K106">
-        <v>96.65998644024158</v>
+        <v>96.65998644024512</v>
       </c>
       <c r="L106">
-        <v>91.81077695866705</v>
+        <v>91.81077695867134</v>
       </c>
       <c r="M106">
-        <v>99.74999385431033</v>
+        <v>99.74999385431329</v>
       </c>
       <c r="N106">
-        <v>91.39916740169015</v>
+        <v>91.39916740169429</v>
       </c>
       <c r="O106">
-        <v>82.57425527355504</v>
+        <v>82.57425527355917</v>
       </c>
       <c r="P106">
-        <v>87.32155552167002</v>
+        <v>87.32155552167387</v>
       </c>
       <c r="Q106">
-        <v>67.7151852453197</v>
+        <v>67.71518524532257</v>
       </c>
       <c r="R106">
-        <v>45.49411039388073</v>
+        <v>45.4941103938836</v>
       </c>
       <c r="S106">
-        <v>16.05760992403805</v>
+        <v>16.05760992404248</v>
       </c>
       <c r="T106">
-        <v>0.6402469704361005</v>
+        <v>0.640246970438966</v>
       </c>
       <c r="U106">
         <v>0.0</v>
@@ -18144,49 +18144,49 @@
         <v>0.0</v>
       </c>
       <c r="F107">
-        <v>0.00013522571715373822</v>
+        <v>0.00013522572044166736</v>
       </c>
       <c r="G107">
-        <v>6.7203947201276595</v>
+        <v>6.720394720130571</v>
       </c>
       <c r="H107">
-        <v>31.48248415254392</v>
+        <v>31.48248415254784</v>
       </c>
       <c r="I107">
-        <v>63.558232796343376</v>
+        <v>63.55823279634751</v>
       </c>
       <c r="J107">
-        <v>78.76959690096568</v>
+        <v>78.76959690096919</v>
       </c>
       <c r="K107">
-        <v>98.58570665553388</v>
+        <v>98.58570665553816</v>
       </c>
       <c r="L107">
-        <v>94.22378947749613</v>
+        <v>94.22378947749894</v>
       </c>
       <c r="M107">
-        <v>101.50418655623866</v>
+        <v>101.50418655624162</v>
       </c>
       <c r="N107">
-        <v>89.96890001859366</v>
+        <v>89.9689000185972</v>
       </c>
       <c r="O107">
-        <v>82.63225270573142</v>
+        <v>82.63225270573457</v>
       </c>
       <c r="P107">
-        <v>92.93045946829952</v>
+        <v>92.93045946830352</v>
       </c>
       <c r="Q107">
-        <v>73.59054702597545</v>
+        <v>73.5905470259786</v>
       </c>
       <c r="R107">
-        <v>45.33807779258528</v>
+        <v>45.33807779258859</v>
       </c>
       <c r="S107">
-        <v>14.583817047668903</v>
+        <v>14.58381704767271</v>
       </c>
       <c r="T107">
-        <v>0.6714093460862516</v>
+        <v>0.6714093460905133</v>
       </c>
       <c r="U107">
         <v>0.0</v>
@@ -18221,49 +18221,49 @@
         <v>0.0</v>
       </c>
       <c r="F108">
-        <v>0.00014201279841168335</v>
+        <v>0.000142012802825775</v>
       </c>
       <c r="G108">
-        <v>6.591719207494889</v>
+        <v>6.591719207499409</v>
       </c>
       <c r="H108">
-        <v>30.536355729611124</v>
+        <v>30.536355729615025</v>
       </c>
       <c r="I108">
-        <v>64.2014005222545</v>
+        <v>64.20140052225725</v>
       </c>
       <c r="J108">
-        <v>78.74260320180473</v>
+        <v>78.74260320180838</v>
       </c>
       <c r="K108">
-        <v>82.75168442125207</v>
+        <v>82.75168442125505</v>
       </c>
       <c r="L108">
-        <v>91.45733006005258</v>
+        <v>91.45733006005685</v>
       </c>
       <c r="M108">
-        <v>89.46853026740798</v>
+        <v>89.46853026741155</v>
       </c>
       <c r="N108">
-        <v>93.43089969451007</v>
+        <v>93.43089969451285</v>
       </c>
       <c r="O108">
-        <v>85.4589914604178</v>
+        <v>85.45899146042211</v>
       </c>
       <c r="P108">
-        <v>86.29327229724944</v>
+        <v>86.29327229725277</v>
       </c>
       <c r="Q108">
-        <v>67.7844600667294</v>
+        <v>67.78446006673221</v>
       </c>
       <c r="R108">
-        <v>45.39440814921572</v>
+        <v>45.39440814921909</v>
       </c>
       <c r="S108">
-        <v>14.665137151841227</v>
+        <v>14.665137151845556</v>
       </c>
       <c r="T108">
-        <v>0.5716982463702562</v>
+        <v>0.5716982463745808</v>
       </c>
       <c r="U108">
         <v>0.0</v>
@@ -18452,49 +18452,49 @@
         <v>0.0</v>
       </c>
       <c r="F111">
-        <v>0.00013831908030353322</v>
+        <v>0.00013831909745931625</v>
       </c>
       <c r="G111">
-        <v>6.513727311953594</v>
+        <v>6.513727311968978</v>
       </c>
       <c r="H111">
-        <v>31.25460239948253</v>
+        <v>31.254602399494615</v>
       </c>
       <c r="I111">
-        <v>61.812517049713165</v>
+        <v>61.81251704972965</v>
       </c>
       <c r="J111">
-        <v>81.54813626476304</v>
+        <v>81.54813626477699</v>
       </c>
       <c r="K111">
-        <v>89.86487035561038</v>
+        <v>89.86487035562459</v>
       </c>
       <c r="L111">
-        <v>98.51062859298406</v>
+        <v>98.51062859300146</v>
       </c>
       <c r="M111">
-        <v>90.20478193368561</v>
+        <v>90.20478193370218</v>
       </c>
       <c r="N111">
-        <v>95.33947591153118</v>
+        <v>95.3394759115472</v>
       </c>
       <c r="O111">
-        <v>83.93047178447124</v>
+        <v>83.93047178448614</v>
       </c>
       <c r="P111">
-        <v>87.03157260309548</v>
+        <v>87.03157260311127</v>
       </c>
       <c r="Q111">
-        <v>76.10039253897149</v>
+        <v>76.10039253898867</v>
       </c>
       <c r="R111">
-        <v>38.62790771141918</v>
+        <v>38.62790771143045</v>
       </c>
       <c r="S111">
-        <v>15.898948336357988</v>
+        <v>15.898948336369358</v>
       </c>
       <c r="T111">
-        <v>0.6511876311618444</v>
+        <v>0.6511876311778906</v>
       </c>
       <c r="U111">
         <v>0.0</v>
@@ -18529,49 +18529,49 @@
         <v>0.0</v>
       </c>
       <c r="F112">
-        <v>0.0001603224225242415</v>
+        <v>0.00016032243729569018</v>
       </c>
       <c r="G112">
-        <v>7.663837267210959</v>
+        <v>7.663837267231429</v>
       </c>
       <c r="H112">
-        <v>35.32696203604507</v>
+        <v>35.32696203606611</v>
       </c>
       <c r="I112">
-        <v>68.05970448723511</v>
+        <v>68.05970448725566</v>
       </c>
       <c r="J112">
-        <v>87.57574801773258</v>
+        <v>87.57574801774172</v>
       </c>
       <c r="K112">
-        <v>84.65054233962893</v>
+        <v>84.65054233964474</v>
       </c>
       <c r="L112">
-        <v>92.1112508630292</v>
+        <v>92.11125086304673</v>
       </c>
       <c r="M112">
-        <v>98.46232965593427</v>
+        <v>98.4623296559439</v>
       </c>
       <c r="N112">
-        <v>84.6938610287376</v>
+        <v>84.69386102874705</v>
       </c>
       <c r="O112">
-        <v>83.49877006269502</v>
+        <v>83.49877006250578</v>
       </c>
       <c r="P112">
-        <v>92.63747266887081</v>
+        <v>92.63747266888095</v>
       </c>
       <c r="Q112">
-        <v>69.82269144945178</v>
+        <v>69.8226914494735</v>
       </c>
       <c r="R112">
-        <v>38.16112717999148</v>
+        <v>38.16112718000659</v>
       </c>
       <c r="S112">
-        <v>13.613910745745414</v>
+        <v>13.613910745756584</v>
       </c>
       <c r="T112">
-        <v>0.5927554238906844</v>
+        <v>0.5927554239024175</v>
       </c>
       <c r="U112">
         <v>0.0</v>
@@ -18606,49 +18606,49 @@
         <v>0.0</v>
       </c>
       <c r="F113">
-        <v>0.00015154091768237603</v>
+        <v>0.0001515409239800647</v>
       </c>
       <c r="G113">
-        <v>7.533203111290989</v>
+        <v>7.533203111299372</v>
       </c>
       <c r="H113">
-        <v>32.80202630154451</v>
+        <v>32.80202630154963</v>
       </c>
       <c r="I113">
-        <v>65.322814724569</v>
+        <v>65.32281472457544</v>
       </c>
       <c r="J113">
-        <v>92.55562780618767</v>
+        <v>92.5556278061922</v>
       </c>
       <c r="K113">
-        <v>84.09267440302975</v>
+        <v>84.09267440303665</v>
       </c>
       <c r="L113">
-        <v>88.24441449679144</v>
+        <v>88.2444144967958</v>
       </c>
       <c r="M113">
-        <v>98.24096971609052</v>
+        <v>98.24096971609833</v>
       </c>
       <c r="N113">
-        <v>91.8597927673942</v>
+        <v>91.85979276739818</v>
       </c>
       <c r="O113">
-        <v>91.55296906733938</v>
+        <v>91.5529690673502</v>
       </c>
       <c r="P113">
-        <v>93.05921319240008</v>
+        <v>93.05921319240588</v>
       </c>
       <c r="Q113">
-        <v>67.93167730621549</v>
+        <v>67.93167730622372</v>
       </c>
       <c r="R113">
-        <v>41.31513620290449</v>
+        <v>41.31513620290934</v>
       </c>
       <c r="S113">
-        <v>15.894944582950082</v>
+        <v>15.894944582956668</v>
       </c>
       <c r="T113">
-        <v>0.6162577145633789</v>
+        <v>0.6162577145732939</v>
       </c>
       <c r="U113">
         <v>0.0</v>
@@ -18683,49 +18683,49 @@
         <v>0.0</v>
       </c>
       <c r="F114">
-        <v>0.00013355754039663073</v>
+        <v>0.0001335575434495695</v>
       </c>
       <c r="G114">
-        <v>7.801732723901143</v>
+        <v>7.801732723903115</v>
       </c>
       <c r="H114">
-        <v>33.927875589895734</v>
+        <v>33.927875589903124</v>
       </c>
       <c r="I114">
-        <v>63.01235896411686</v>
+        <v>63.01235896412254</v>
       </c>
       <c r="J114">
-        <v>84.11525781115577</v>
+        <v>84.11525781116143</v>
       </c>
       <c r="K114">
-        <v>90.45658643980723</v>
+        <v>90.45658643981369</v>
       </c>
       <c r="L114">
-        <v>96.16894894233666</v>
+        <v>96.16894894234429</v>
       </c>
       <c r="M114">
-        <v>97.59012447261867</v>
+        <v>97.59012447262648</v>
       </c>
       <c r="N114">
-        <v>84.03726755444745</v>
+        <v>84.03726755445314</v>
       </c>
       <c r="O114">
-        <v>95.39932744419593</v>
+        <v>95.39932744420366</v>
       </c>
       <c r="P114">
-        <v>86.12068747155493</v>
+        <v>86.12068747156081</v>
       </c>
       <c r="Q114">
-        <v>77.29516129971807</v>
+        <v>77.29516129972399</v>
       </c>
       <c r="R114">
-        <v>44.12276607825664</v>
+        <v>44.12276607826425</v>
       </c>
       <c r="S114">
-        <v>14.112982797577104</v>
+        <v>14.112982797581935</v>
       </c>
       <c r="T114">
-        <v>0.6806521553197633</v>
+        <v>0.6806521553226048</v>
       </c>
       <c r="U114">
         <v>0.0</v>
@@ -18760,49 +18760,49 @@
         <v>0.0</v>
       </c>
       <c r="F115">
-        <v>0.00013749697877159844</v>
+        <v>0.00013749698155152146</v>
       </c>
       <c r="G115">
-        <v>6.488063529329954</v>
+        <v>6.4880635293338855</v>
       </c>
       <c r="H115">
-        <v>32.27347292832364</v>
+        <v>32.273472928327465</v>
       </c>
       <c r="I115">
-        <v>67.39375178696288</v>
+        <v>67.39375178696719</v>
       </c>
       <c r="J115">
-        <v>76.34556128383294</v>
+        <v>76.34556128383701</v>
       </c>
       <c r="K115">
-        <v>97.18434191999444</v>
+        <v>97.18434191999768</v>
       </c>
       <c r="L115">
-        <v>99.10220758657859</v>
+        <v>99.10220758658215</v>
       </c>
       <c r="M115">
-        <v>99.58172016553846</v>
+        <v>99.58172016554272</v>
       </c>
       <c r="N115">
-        <v>88.5446518111954</v>
+        <v>88.54465181119849</v>
       </c>
       <c r="O115">
-        <v>98.4475287884784</v>
+        <v>98.44752878848158</v>
       </c>
       <c r="P115">
-        <v>89.64148288088583</v>
+        <v>89.64148288089018</v>
       </c>
       <c r="Q115">
-        <v>68.34050447967286</v>
+        <v>68.34050447967638</v>
       </c>
       <c r="R115">
-        <v>44.818332569911675</v>
+        <v>44.81833256991558</v>
       </c>
       <c r="S115">
-        <v>14.768572789261057</v>
+        <v>14.768572789263999</v>
       </c>
       <c r="T115">
-        <v>0.6295482756944135</v>
+        <v>0.6295482756977435</v>
       </c>
       <c r="U115">
         <v>0.0</v>
@@ -18902,76 +18902,76 @@
         <v>140</v>
       </c>
       <c r="B117">
-        <v>4278.995856228945</v>
+        <v>4278.995856228788</v>
       </c>
       <c r="C117">
-        <v>4021.6622570826576</v>
+        <v>4021.662257082503</v>
       </c>
       <c r="D117">
-        <v>3450.9445925272344</v>
+        <v>3450.944592527094</v>
       </c>
       <c r="E117">
-        <v>2960.3235304809327</v>
+        <v>2960.3235304807863</v>
       </c>
       <c r="F117">
-        <v>2789.841667876075</v>
+        <v>2789.841667875842</v>
       </c>
       <c r="G117">
-        <v>3409.368437232133</v>
+        <v>3409.3684372319026</v>
       </c>
       <c r="H117">
-        <v>3721.847387218005</v>
+        <v>3721.847387217785</v>
       </c>
       <c r="I117">
-        <v>3652.6632766516427</v>
+        <v>3652.6632766513944</v>
       </c>
       <c r="J117">
-        <v>3565.3821687456525</v>
+        <v>3565.3821687454265</v>
       </c>
       <c r="K117">
-        <v>3870.4428686879005</v>
+        <v>3870.442868687671</v>
       </c>
       <c r="L117">
-        <v>3814.716579360902</v>
+        <v>3814.716579360792</v>
       </c>
       <c r="M117">
-        <v>3305.913796687523</v>
+        <v>3305.9137966872872</v>
       </c>
       <c r="N117">
-        <v>2958.6152861483424</v>
+        <v>2958.6152861481196</v>
       </c>
       <c r="O117">
-        <v>2579.212346344971</v>
+        <v>2579.2123463449716</v>
       </c>
       <c r="P117">
-        <v>3506.662807209487</v>
+        <v>3506.6628072092626</v>
       </c>
       <c r="Q117">
-        <v>3932.8818612256878</v>
+        <v>3932.881861225478</v>
       </c>
       <c r="R117">
-        <v>4018.235397879917</v>
+        <v>4018.2353978797155</v>
       </c>
       <c r="S117">
-        <v>5013.5842198182245</v>
+        <v>5013.58421981801</v>
       </c>
       <c r="T117">
-        <v>5886.066539049022</v>
+        <v>5886.066539048835</v>
       </c>
       <c r="U117">
-        <v>6341.379573707683</v>
+        <v>6341.379573707649</v>
       </c>
       <c r="V117">
-        <v>6446.214984218281</v>
+        <v>6446.214984218121</v>
       </c>
       <c r="W117">
-        <v>5673.474860321736</v>
+        <v>5673.474860321574</v>
       </c>
       <c r="X117">
-        <v>5562.484662694503</v>
+        <v>5562.484662694403</v>
       </c>
       <c r="Y117">
-        <v>5201.315005478142</v>
+        <v>5201.315005477921</v>
       </c>
     </row>
     <row r="118" spans="1:25">
@@ -18979,76 +18979,76 @@
         <v>141</v>
       </c>
       <c r="B118">
-        <v>1235.6041437710514</v>
+        <v>1235.604143771206</v>
       </c>
       <c r="C118">
-        <v>1177.817742917345</v>
+        <v>1177.8177429174975</v>
       </c>
       <c r="D118">
-        <v>1118.2954074727681</v>
+        <v>1118.2954074729096</v>
       </c>
       <c r="E118">
-        <v>1136.2364695190736</v>
+        <v>1136.2364695192252</v>
       </c>
       <c r="F118">
-        <v>1149.1583321239286</v>
+        <v>1149.1583321241542</v>
       </c>
       <c r="G118">
-        <v>1317.4315627678673</v>
+        <v>1317.4315627680978</v>
       </c>
       <c r="H118">
-        <v>1792.7526127819926</v>
+        <v>1792.7526127822302</v>
       </c>
       <c r="I118">
-        <v>2492.176723348359</v>
+        <v>2492.1767233485953</v>
       </c>
       <c r="J118">
-        <v>2894.5778312543457</v>
+        <v>2894.577831254568</v>
       </c>
       <c r="K118">
-        <v>3062.19713131208</v>
+        <v>3062.1971313123277</v>
       </c>
       <c r="L118">
-        <v>3196.7034206390163</v>
+        <v>3196.703420639246</v>
       </c>
       <c r="M118">
-        <v>3311.606203312487</v>
+        <v>3311.6062033127146</v>
       </c>
       <c r="N118">
-        <v>3343.784713851657</v>
+        <v>3343.7847138518796</v>
       </c>
       <c r="O118">
-        <v>3408.067653655028</v>
+        <v>3408.0676536550545</v>
       </c>
       <c r="P118">
-        <v>3425.977192790516</v>
+        <v>3425.977192790728</v>
       </c>
       <c r="Q118">
-        <v>3157.3181387743143</v>
+        <v>3157.3181387745353</v>
       </c>
       <c r="R118">
-        <v>2678.064602120067</v>
+        <v>2678.0646021202856</v>
       </c>
       <c r="S118">
-        <v>1997.8357801817742</v>
+        <v>1997.8357801819932</v>
       </c>
       <c r="T118">
-        <v>1519.253460950959</v>
+        <v>1519.2534609511758</v>
       </c>
       <c r="U118">
-        <v>1379.060426292204</v>
+        <v>1379.0604262923484</v>
       </c>
       <c r="V118">
-        <v>1431.7850157817231</v>
+        <v>1431.7850157818793</v>
       </c>
       <c r="W118">
-        <v>1416.7251396782624</v>
+        <v>1416.7251396784175</v>
       </c>
       <c r="X118">
-        <v>1291.3753373055001</v>
+        <v>1291.3753373056525</v>
       </c>
       <c r="Y118">
-        <v>1258.6449945219163</v>
+        <v>1258.6449945220695</v>
       </c>
     </row>
     <row r="119" spans="1:25">
@@ -19056,7 +19056,7 @@
         <v>142</v>
       </c>
       <c r="B119">
-        <v>2.279085757769862e6</v>
+        <v>2.278502384479484e6</v>
       </c>
     </row>
     <row r="120" spans="1:25">
@@ -19064,7 +19064,7 @@
         <v>143</v>
       </c>
       <c r="B120">
-        <v>239466.0</v>
+        <v>235266.0</v>
       </c>
     </row>
     <row r="121" spans="1:25">
@@ -19072,7 +19072,7 @@
         <v>144</v>
       </c>
       <c r="B121">
-        <v>782362.7999999998</v>
+        <v>788092.7999999998</v>
       </c>
     </row>
     <row r="122" spans="1:25">
@@ -19080,7 +19080,7 @@
         <v>145</v>
       </c>
       <c r="B122">
-        <v>3.300914557769862e6</v>
+        <v>3.301861184479484e6</v>
       </c>
     </row>
   </sheetData>
